--- a/data/8th_output.xlsx
+++ b/data/8th_output.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APERC\power-model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8EA5ED-9E0A-43CD-90B7-A4090FA7FE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9AE4E5-AFFF-4822-B035-2FC3D9F9A01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7E3120CA-2A18-42E5-81D3-EDAD389011D0}"/>
+    <workbookView xWindow="-27045" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{7E3120CA-2A18-42E5-81D3-EDAD389011D0}"/>
   </bookViews>
   <sheets>
     <sheet name="generation_by_tech" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -523,7 +522,7 @@
   <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1601,16 +1600,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D576D04-FE60-4941-94E8-B647D9F06773}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/8th_output.xlsx
+++ b/data/8th_output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APERC\power-model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9AE4E5-AFFF-4822-B035-2FC3D9F9A01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429419CF-FDEC-4E6C-AAF9-20DBF6878C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27045" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{7E3120CA-2A18-42E5-81D3-EDAD389011D0}"/>
+    <workbookView xWindow="1755" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{7E3120CA-2A18-42E5-81D3-EDAD389011D0}"/>
   </bookViews>
   <sheets>
     <sheet name="generation_by_tech" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
   <si>
     <t>Coal</t>
   </si>
@@ -168,6 +168,18 @@
   </si>
   <si>
     <t>TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>19_THA</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>SCENARIO</t>
+  </si>
+  <si>
+    <t>REGION</t>
   </si>
 </sst>
 </file>
@@ -203,8 +215,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,145 +534,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07E161E-0655-4CCA-BD64-BD49C75ACBD9}">
-  <dimension ref="A1:AI10"/>
+  <dimension ref="A1:AK10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>20</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>21</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>22</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>24</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>25</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>26</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>27</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>28</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>29</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>30</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>33</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>34</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>35</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>36</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>37</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>38</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>39</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>40</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>41</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="D2">
         <v>35.782095159999997</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>35.844999999999999</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>35.82500000000001</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>36.919024173577441</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>38.038694665178703</v>
-      </c>
-      <c r="G2">
-        <v>35.292868218381408</v>
-      </c>
-      <c r="H2">
-        <v>35.292868218381408</v>
       </c>
       <c r="I2">
         <v>35.292868218381408</v>
@@ -666,13 +687,13 @@
         <v>35.292868218381408</v>
       </c>
       <c r="K2">
+        <v>35.292868218381408</v>
+      </c>
+      <c r="L2">
+        <v>35.292868218381408</v>
+      </c>
+      <c r="M2">
         <v>34.83008966286905</v>
-      </c>
-      <c r="L2">
-        <v>36.901920135169568</v>
-      </c>
-      <c r="M2">
-        <v>36.901920135169568</v>
       </c>
       <c r="N2">
         <v>36.901920135169568</v>
@@ -681,40 +702,40 @@
         <v>36.901920135169568</v>
       </c>
       <c r="P2">
+        <v>36.901920135169568</v>
+      </c>
+      <c r="Q2">
+        <v>36.901920135169568</v>
+      </c>
+      <c r="R2">
         <v>34.062390149446543</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>32.01864674047976</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <v>28.816782066431781</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>25.935103859788601</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>20.748083087830889</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <v>16.5984664702647</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>11.6189265291853</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
         <v>6.9713559175111728</v>
       </c>
-      <c r="X2">
+      <c r="Z2">
         <v>3.4856779587555899</v>
       </c>
-      <c r="Y2">
+      <c r="AA2">
         <v>1.742838979377795</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
       </c>
       <c r="AB2">
         <v>0</v>
@@ -740,243 +761,261 @@
       <c r="AI2">
         <v>0</v>
       </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="D3">
         <v>120.26373599999999</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>116.35874048300001</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>127.44199999999999</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>113.859153366</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>98.513502869785455</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>113.19421707874</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>125.7395597439868</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>131.4156677324612</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>136.5716939653006</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>135.94268289441109</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>138.68714730338141</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>135.34169276806151</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>139.08360047350951</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>141.77319005105079</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>145.38306223323829</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>146.7325728301702</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>145.35783475337209</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>150.30522365275169</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>153.3601674581453</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <v>161.1239370357662</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>170.48826760267289</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
         <v>179.42066140649899</v>
       </c>
-      <c r="X3">
+      <c r="Z3">
         <v>188.72141510298641</v>
       </c>
-      <c r="Y3">
+      <c r="AA3">
         <v>194.75597620678721</v>
       </c>
-      <c r="Z3">
+      <c r="AB3">
         <v>200.64917667974791</v>
       </c>
-      <c r="AA3">
+      <c r="AC3">
         <v>205.33940820566141</v>
       </c>
-      <c r="AB3">
+      <c r="AD3">
         <v>209.66652000879421</v>
       </c>
-      <c r="AC3">
+      <c r="AE3">
         <v>213.67816251498729</v>
       </c>
-      <c r="AD3">
+      <c r="AF3">
         <v>220.1645002041073</v>
       </c>
-      <c r="AE3">
+      <c r="AG3">
         <v>225.50350780389411</v>
       </c>
-      <c r="AF3">
+      <c r="AH3">
         <v>233.3230937139945</v>
       </c>
-      <c r="AG3">
+      <c r="AI3">
         <v>240.46768395871351</v>
       </c>
-      <c r="AH3">
+      <c r="AJ3">
         <v>247.1756758084768</v>
       </c>
-      <c r="AI3">
+      <c r="AK3">
         <v>254.7977741460526</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="D4">
         <v>0.33416899999999999</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>0.21645900000000001</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>0.22099999999999989</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>0.221</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>0.19889999999999999</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>0.17900999999999989</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>0.16110899999999989</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>0.1449981000000001</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>0.13049828999999999</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>0.117448461</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>0.10570361490000001</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>9.5133253410000063E-2</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>8.5619928069000054E-2</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>7.7057935262099989E-2</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>6.9352141735889952E-2</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>6.2416927562300918E-2</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>5.6175234806070971E-2</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>5.0557711325463717E-2</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>4.5501940192917333E-2</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <v>4.0951746173625687E-2</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>3.685657155626311E-2</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
         <v>3.3170914400636749E-2</v>
       </c>
-      <c r="X4">
+      <c r="Z4">
         <v>2.9853822960573029E-2</v>
       </c>
-      <c r="Y4">
+      <c r="AA4">
         <v>2.6868440664515689E-2</v>
       </c>
-      <c r="Z4">
+      <c r="AB4">
         <v>2.4181596598064081E-2</v>
       </c>
-      <c r="AA4">
+      <c r="AC4">
         <v>2.1763436938257719E-2</v>
       </c>
-      <c r="AB4">
+      <c r="AD4">
         <v>1.9587093244431829E-2</v>
       </c>
-      <c r="AC4">
+      <c r="AE4">
         <v>1.762838391998869E-2</v>
       </c>
-      <c r="AD4">
+      <c r="AF4">
         <v>1.5865545527989831E-2</v>
       </c>
-      <c r="AE4">
+      <c r="AG4">
         <v>1.427899097519086E-2</v>
       </c>
-      <c r="AF4">
+      <c r="AH4">
         <v>1.2851091877671691E-2</v>
       </c>
-      <c r="AG4">
+      <c r="AI4">
         <v>1.156598268990461E-2</v>
       </c>
-      <c r="AH4">
+      <c r="AJ4">
         <v>1.040938442091411E-2</v>
       </c>
-      <c r="AI4">
+      <c r="AK4">
         <v>9.3684459788226943E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="D5">
         <v>4.8319999999999999</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>7.7829999999999986</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>8.1985760189131209</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>6.5020880130041796</v>
       </c>
-      <c r="F5">
-        <v>9.7452400194904811</v>
-      </c>
-      <c r="G5">
-        <v>9.7452400194904811</v>
-      </c>
       <c r="H5">
         <v>9.7452400194904811</v>
       </c>
@@ -1061,31 +1100,37 @@
       <c r="AI5">
         <v>9.7452400194904811</v>
       </c>
+      <c r="AJ5">
+        <v>9.7452400194904811</v>
+      </c>
+      <c r="AK5">
+        <v>9.7452400194904811</v>
+      </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="D6">
         <v>1.1100000000000001</v>
       </c>
-      <c r="C6">
+      <c r="E6">
         <v>1.6180000000000001</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>3.65500000731</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>3.65500000731</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>3.652157844022315</v>
-      </c>
-      <c r="G6">
-        <v>3.6521578440223181</v>
-      </c>
-      <c r="H6">
-        <v>3.6521578440223181</v>
       </c>
       <c r="I6">
         <v>3.6521578440223181</v>
@@ -1118,147 +1163,153 @@
         <v>3.6521578440223181</v>
       </c>
       <c r="S6">
+        <v>3.6521578440223181</v>
+      </c>
+      <c r="T6">
+        <v>3.6521578440223181</v>
+      </c>
+      <c r="U6">
         <v>6.729955098108805</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>6.9723013385880543</v>
       </c>
-      <c r="U6">
+      <c r="W6">
         <v>7.2146475790673046</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <v>7.4569938195465584</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
         <v>7.6266361878820277</v>
       </c>
-      <c r="X6">
+      <c r="Z6">
         <v>7.796278556217505</v>
       </c>
-      <c r="Y6">
+      <c r="AA6">
         <v>7.9659209245529858</v>
       </c>
-      <c r="Z6">
+      <c r="AB6">
         <v>8.1355632928884578</v>
       </c>
-      <c r="AA6">
+      <c r="AC6">
         <v>8.3052056612239387</v>
       </c>
-      <c r="AB6">
+      <c r="AD6">
         <v>8.8449107387712331</v>
       </c>
-      <c r="AC6">
+      <c r="AE6">
         <v>9.6617549795046607</v>
       </c>
-      <c r="AD6">
+      <c r="AF6">
         <v>10.21643778175229</v>
       </c>
-      <c r="AE6">
+      <c r="AG6">
         <v>11.81915514072462</v>
       </c>
-      <c r="AF6">
+      <c r="AH6">
         <v>12.547961293294181</v>
       </c>
-      <c r="AG6">
+      <c r="AI6">
         <v>14.197781794604801</v>
       </c>
-      <c r="AH6">
+      <c r="AJ6">
         <v>15.49004465271231</v>
       </c>
-      <c r="AI6">
+      <c r="AK6">
         <v>16.93273182228527</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="D7">
         <v>4.5419999999999998</v>
       </c>
-      <c r="C7">
+      <c r="E7">
         <v>4.5589999999999993</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>3.9104550102779938</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>1.1462920302188411</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>5.3559925325794318</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>5.5243435616332892</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>5.739555186403166</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>6.090141865463778</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>6.2116322988016126</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>7.0134691588313327</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>7.4248010545608549</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>9.2679844860577454</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>11.46869690709166</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>13.75618820908119</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>17.730660956847519</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>18.910853737843649</v>
       </c>
-      <c r="R7">
+      <c r="T7">
         <v>23.124836197047429</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>23.560466179444511</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>25.33249092855781</v>
       </c>
-      <c r="U7">
+      <c r="W7">
         <v>26.535246218602389</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>26.838972301946988</v>
       </c>
-      <c r="W7">
+      <c r="Y7">
         <v>27.186087825769341</v>
       </c>
-      <c r="X7">
+      <c r="Z7">
         <v>27.533203349591719</v>
       </c>
-      <c r="Y7">
+      <c r="AA7">
         <v>27.880318873414129</v>
       </c>
-      <c r="Z7">
+      <c r="AB7">
         <v>29.963012016348461</v>
       </c>
-      <c r="AA7">
+      <c r="AC7">
         <v>32.045705159282782</v>
       </c>
-      <c r="AB7">
+      <c r="AD7">
         <v>34.1283983022171</v>
-      </c>
-      <c r="AC7">
-        <v>35.863975921329001</v>
-      </c>
-      <c r="AD7">
-        <v>35.863975921329001</v>
       </c>
       <c r="AE7">
         <v>35.863975921329001</v>
@@ -1275,88 +1326,94 @@
       <c r="AI7">
         <v>35.863975921329001</v>
       </c>
+      <c r="AJ7">
+        <v>35.863975921329001</v>
+      </c>
+      <c r="AK7">
+        <v>35.863975921329001</v>
+      </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="D8">
         <v>18.6464</v>
       </c>
-      <c r="C8">
+      <c r="E8">
         <v>20.985342293999999</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>17.908999999999999</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>18.749432966072671</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>18.90817887571653</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>19.115057852362629</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>19.30353796412113</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>19.405532222521419</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>19.711653926521429</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>20.017775630521431</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>20.32389733452144</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>20.630019038521429</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>20.93614074252142</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>21.24226244652143</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>21.548384150521422</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>21.85450585452142</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <v>22.16062755852143</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>22.469548004665391</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>22.784065935097271</v>
       </c>
-      <c r="U8">
+      <c r="W8">
         <v>23.09802411710038</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>23.40974330538829</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
         <v>23.71586500938831</v>
-      </c>
-      <c r="X8">
-        <v>23.597133519908301</v>
-      </c>
-      <c r="Y8">
-        <v>23.597133519908311</v>
       </c>
       <c r="Z8">
         <v>23.597133519908301</v>
       </c>
       <c r="AA8">
-        <v>23.597133519908301</v>
+        <v>23.597133519908311</v>
       </c>
       <c r="AB8">
         <v>23.597133519908301</v>
@@ -1380,30 +1437,36 @@
         <v>23.597133519908301</v>
       </c>
       <c r="AI8">
+        <v>23.597133519908301</v>
+      </c>
+      <c r="AJ8">
+        <v>23.597133519908301</v>
+      </c>
+      <c r="AK8">
         <v>23.597133519908311</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="D9">
         <v>24.43139686</v>
       </c>
-      <c r="C9">
+      <c r="E9">
         <v>26.673800419999999</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>25.546654794000009</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>25.550617358185189</v>
-      </c>
-      <c r="F9">
-        <v>44.595408089190833</v>
-      </c>
-      <c r="G9">
-        <v>44.595408089190833</v>
       </c>
       <c r="H9">
         <v>44.595408089190833</v>
@@ -1415,16 +1478,16 @@
         <v>44.595408089190833</v>
       </c>
       <c r="K9">
+        <v>44.595408089190833</v>
+      </c>
+      <c r="L9">
+        <v>44.595408089190833</v>
+      </c>
+      <c r="M9">
         <v>50.052888100105783</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>50.052888100105783</v>
-      </c>
-      <c r="M9">
-        <v>55.510368111020703</v>
-      </c>
-      <c r="N9">
-        <v>55.510368111020703</v>
       </c>
       <c r="O9">
         <v>55.510368111020703</v>
@@ -1433,19 +1496,19 @@
         <v>55.510368111020703</v>
       </c>
       <c r="Q9">
+        <v>55.510368111020703</v>
+      </c>
+      <c r="R9">
+        <v>55.510368111020703</v>
+      </c>
+      <c r="S9">
         <v>60.967848121935702</v>
       </c>
-      <c r="R9">
+      <c r="T9">
         <v>66.425328132850694</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>66.425328132850694</v>
-      </c>
-      <c r="T9">
-        <v>71.882808143765573</v>
-      </c>
-      <c r="U9">
-        <v>71.882808143765573</v>
       </c>
       <c r="V9">
         <v>71.882808143765573</v>
@@ -1489,111 +1552,123 @@
       <c r="AI9">
         <v>71.882808143765573</v>
       </c>
+      <c r="AJ9">
+        <v>71.882808143765573</v>
+      </c>
+      <c r="AK9">
+        <v>71.882808143765573</v>
+      </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="D10">
         <v>209.94179702</v>
       </c>
-      <c r="C10">
+      <c r="E10">
         <v>214.039342197</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>222.70768583050099</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>206.60260791436829</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>219.00807489596369</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>231.29830266382089</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>244.22943606559619</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>250.34201409153141</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>255.9111526517087</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>261.37175177125152</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>266.89375540615191</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>271.14451565575382</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>277.38374416089471</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>282.65838475161848</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <v>287.70161560632312</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>293.94424207602577</v>
       </c>
-      <c r="R10">
+      <c r="T10">
         <v>299.33898180654228</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>305.22142265842558</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>310.87065885166828</v>
       </c>
-      <c r="U10">
+      <c r="W10">
         <v>316.23932133023072</v>
       </c>
-      <c r="V10">
+      <c r="X10">
         <v>321.47780829355241</v>
       </c>
-      <c r="W10">
+      <c r="Y10">
         <v>326.58182542470649</v>
       </c>
-      <c r="X10">
+      <c r="Z10">
         <v>332.7916104736762</v>
       </c>
-      <c r="Y10">
+      <c r="AA10">
         <v>337.59710510796089</v>
       </c>
-      <c r="Z10">
+      <c r="AB10">
         <v>343.99711526874728</v>
       </c>
-      <c r="AA10">
+      <c r="AC10">
         <v>350.93726414627082</v>
       </c>
-      <c r="AB10">
+      <c r="AD10">
         <v>357.88459782619128</v>
       </c>
-      <c r="AC10">
+      <c r="AE10">
         <v>364.44670348290538</v>
       </c>
-      <c r="AD10">
+      <c r="AF10">
         <v>371.48596113588098</v>
       </c>
-      <c r="AE10">
+      <c r="AG10">
         <v>378.42609954008719</v>
       </c>
-      <c r="AF10">
+      <c r="AH10">
         <v>386.9730637036597</v>
       </c>
-      <c r="AG10">
+      <c r="AI10">
         <v>395.76618934050163</v>
       </c>
-      <c r="AH10">
+      <c r="AJ10">
         <v>403.76528745010341</v>
       </c>
-      <c r="AI10">
+      <c r="AK10">
         <v>412.82903201880998</v>
       </c>
     </row>

--- a/data/8th_output.xlsx
+++ b/data/8th_output.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APERC\power-model\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\power-model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429419CF-FDEC-4E6C-AAF9-20DBF6878C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9D2D09-157B-4022-9AF4-D1A3ED6353C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{7E3120CA-2A18-42E5-81D3-EDAD389011D0}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="28170" windowHeight="15210" xr2:uid="{7E3120CA-2A18-42E5-81D3-EDAD389011D0}"/>
   </bookViews>
   <sheets>
     <sheet name="generation_by_tech" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="50">
   <si>
     <t>Coal</t>
   </si>
@@ -65,13 +65,112 @@
     <t>Total</t>
   </si>
   <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>2026</t>
+  </si>
+  <si>
+    <t>2027</t>
+  </si>
+  <si>
+    <t>2028</t>
+  </si>
+  <si>
+    <t>2029</t>
+  </si>
+  <si>
+    <t>2030</t>
+  </si>
+  <si>
+    <t>2031</t>
+  </si>
+  <si>
+    <t>2032</t>
+  </si>
+  <si>
+    <t>2033</t>
+  </si>
+  <si>
+    <t>2034</t>
+  </si>
+  <si>
+    <t>2035</t>
+  </si>
+  <si>
+    <t>2036</t>
+  </si>
+  <si>
+    <t>2037</t>
+  </si>
+  <si>
+    <t>2038</t>
+  </si>
+  <si>
+    <t>2039</t>
+  </si>
+  <si>
+    <t>2040</t>
+  </si>
+  <si>
+    <t>2041</t>
+  </si>
+  <si>
+    <t>2042</t>
+  </si>
+  <si>
+    <t>2043</t>
+  </si>
+  <si>
+    <t>2044</t>
+  </si>
+  <si>
+    <t>2045</t>
+  </si>
+  <si>
+    <t>2046</t>
+  </si>
+  <si>
+    <t>2047</t>
+  </si>
+  <si>
+    <t>2048</t>
+  </si>
+  <si>
+    <t>2049</t>
+  </si>
+  <si>
+    <t>2050</t>
+  </si>
+  <si>
+    <t>TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>19_THA</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>SCENARIO</t>
+  </si>
+  <si>
+    <t>REGION</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Gas_CCS</t>
   </si>
   <si>
     <t>2020</t>
@@ -80,112 +179,22 @@
     <t>2021</t>
   </si>
   <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>2024</t>
-  </si>
-  <si>
-    <t>2025</t>
-  </si>
-  <si>
-    <t>2026</t>
-  </si>
-  <si>
-    <t>2027</t>
-  </si>
-  <si>
-    <t>2028</t>
-  </si>
-  <si>
-    <t>2029</t>
-  </si>
-  <si>
-    <t>2030</t>
-  </si>
-  <si>
-    <t>2031</t>
-  </si>
-  <si>
-    <t>2032</t>
-  </si>
-  <si>
-    <t>2033</t>
-  </si>
-  <si>
-    <t>2034</t>
-  </si>
-  <si>
-    <t>2035</t>
-  </si>
-  <si>
-    <t>2036</t>
-  </si>
-  <si>
-    <t>2037</t>
-  </si>
-  <si>
-    <t>2038</t>
-  </si>
-  <si>
-    <t>2039</t>
-  </si>
-  <si>
-    <t>2040</t>
-  </si>
-  <si>
-    <t>2041</t>
-  </si>
-  <si>
-    <t>2042</t>
-  </si>
-  <si>
-    <t>2043</t>
-  </si>
-  <si>
-    <t>2044</t>
-  </si>
-  <si>
-    <t>2045</t>
-  </si>
-  <si>
-    <t>2046</t>
-  </si>
-  <si>
-    <t>2047</t>
-  </si>
-  <si>
-    <t>2048</t>
-  </si>
-  <si>
-    <t>2049</t>
-  </si>
-  <si>
-    <t>2050</t>
-  </si>
-  <si>
-    <t>TECHNOLOGY</t>
-  </si>
-  <si>
-    <t>19_THA</t>
-  </si>
-  <si>
-    <t>Reference</t>
-  </si>
-  <si>
-    <t>SCENARIO</t>
-  </si>
-  <si>
-    <t>REGION</t>
+    <t>20_USA</t>
+  </si>
+  <si>
+    <t>Nuclear</t>
+  </si>
+  <si>
+    <t>Gas CCS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#\ ###\ ###\ ##0.0;\-#\ ###\ ###\ ##0.0;\-"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -215,11 +224,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,208 +544,197 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07E161E-0655-4CCA-BD64-BD49C75ACBD9}">
-  <dimension ref="A1:AK10"/>
+  <dimension ref="A1:AH41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>19</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>22</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>23</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>24</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>25</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>26</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>27</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>28</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>33</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>34</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>35</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>36</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>37</v>
       </c>
-      <c r="AG1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH1" t="s">
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
         <v>39</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>35.782095159999997</v>
+        <v>36.919024173577441</v>
       </c>
       <c r="E2">
-        <v>35.844999999999999</v>
+        <v>38.038694665178703</v>
       </c>
       <c r="F2">
-        <v>35.82500000000001</v>
+        <v>35.292868218381408</v>
       </c>
       <c r="G2">
-        <v>36.919024173577441</v>
+        <v>35.292868218381408</v>
       </c>
       <c r="H2">
-        <v>38.038694665178703</v>
+        <v>35.292868218381408</v>
       </c>
       <c r="I2">
         <v>35.292868218381408</v>
       </c>
       <c r="J2">
-        <v>35.292868218381408</v>
+        <v>34.83008966286905</v>
       </c>
       <c r="K2">
-        <v>35.292868218381408</v>
+        <v>36.901920135169568</v>
       </c>
       <c r="L2">
-        <v>35.292868218381408</v>
+        <v>36.901920135169568</v>
       </c>
       <c r="M2">
-        <v>34.83008966286905</v>
+        <v>36.901920135169568</v>
       </c>
       <c r="N2">
         <v>36.901920135169568</v>
       </c>
       <c r="O2">
-        <v>36.901920135169568</v>
+        <v>34.062390149446543</v>
       </c>
       <c r="P2">
-        <v>36.901920135169568</v>
+        <v>32.01864674047976</v>
       </c>
       <c r="Q2">
-        <v>36.901920135169568</v>
+        <v>28.816782066431781</v>
       </c>
       <c r="R2">
-        <v>34.062390149446543</v>
+        <v>25.935103859788601</v>
       </c>
       <c r="S2">
-        <v>32.01864674047976</v>
+        <v>20.748083087830889</v>
       </c>
       <c r="T2">
-        <v>28.816782066431781</v>
+        <v>16.5984664702647</v>
       </c>
       <c r="U2">
-        <v>25.935103859788601</v>
+        <v>11.6189265291853</v>
       </c>
       <c r="V2">
-        <v>20.748083087830889</v>
+        <v>6.9713559175111728</v>
       </c>
       <c r="W2">
-        <v>16.5984664702647</v>
+        <v>3.4856779587555899</v>
       </c>
       <c r="X2">
-        <v>11.6189265291853</v>
+        <v>1.742838979377795</v>
       </c>
       <c r="Y2">
-        <v>6.9713559175111728</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>3.4856779587555899</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>1.742838979377795</v>
+        <v>0</v>
       </c>
       <c r="AB2">
         <v>0</v>
@@ -758,263 +757,236 @@
       <c r="AH2">
         <v>0</v>
       </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>120.26373599999999</v>
+        <v>113.859153366</v>
       </c>
       <c r="E3">
-        <v>116.35874048300001</v>
+        <v>98.513502869785455</v>
       </c>
       <c r="F3">
-        <v>127.44199999999999</v>
+        <v>113.19421707874</v>
       </c>
       <c r="G3">
-        <v>113.859153366</v>
+        <v>125.7395597439868</v>
       </c>
       <c r="H3">
-        <v>98.513502869785455</v>
+        <v>131.4156677324612</v>
       </c>
       <c r="I3">
-        <v>113.19421707874</v>
+        <v>136.5716939653006</v>
       </c>
       <c r="J3">
-        <v>125.7395597439868</v>
+        <v>135.94268289441109</v>
       </c>
       <c r="K3">
-        <v>131.4156677324612</v>
+        <v>138.68714730338141</v>
       </c>
       <c r="L3">
-        <v>136.5716939653006</v>
+        <v>135.34169276806151</v>
       </c>
       <c r="M3">
-        <v>135.94268289441109</v>
+        <v>139.08360047350951</v>
       </c>
       <c r="N3">
-        <v>138.68714730338141</v>
+        <v>141.77319005105079</v>
       </c>
       <c r="O3">
-        <v>135.34169276806151</v>
+        <v>145.38306223323829</v>
       </c>
       <c r="P3">
-        <v>139.08360047350951</v>
+        <v>146.7325728301702</v>
       </c>
       <c r="Q3">
-        <v>141.77319005105079</v>
+        <v>145.35783475337209</v>
       </c>
       <c r="R3">
-        <v>145.38306223323829</v>
+        <v>150.30522365275169</v>
       </c>
       <c r="S3">
-        <v>146.7325728301702</v>
+        <v>153.3601674581453</v>
       </c>
       <c r="T3">
-        <v>145.35783475337209</v>
+        <v>161.1239370357662</v>
       </c>
       <c r="U3">
-        <v>150.30522365275169</v>
+        <v>170.48826760267289</v>
       </c>
       <c r="V3">
-        <v>153.3601674581453</v>
+        <v>179.42066140649899</v>
       </c>
       <c r="W3">
-        <v>161.1239370357662</v>
+        <v>188.72141510298641</v>
       </c>
       <c r="X3">
-        <v>170.48826760267289</v>
+        <v>194.75597620678721</v>
       </c>
       <c r="Y3">
-        <v>179.42066140649899</v>
+        <v>200.64917667974791</v>
       </c>
       <c r="Z3">
-        <v>188.72141510298641</v>
+        <v>205.33940820566141</v>
       </c>
       <c r="AA3">
-        <v>194.75597620678721</v>
+        <v>209.66652000879421</v>
       </c>
       <c r="AB3">
-        <v>200.64917667974791</v>
+        <v>213.67816251498729</v>
       </c>
       <c r="AC3">
-        <v>205.33940820566141</v>
+        <v>220.1645002041073</v>
       </c>
       <c r="AD3">
-        <v>209.66652000879421</v>
+        <v>225.50350780389411</v>
       </c>
       <c r="AE3">
-        <v>213.67816251498729</v>
+        <v>233.3230937139945</v>
       </c>
       <c r="AF3">
-        <v>220.1645002041073</v>
+        <v>240.46768395871351</v>
       </c>
       <c r="AG3">
-        <v>225.50350780389411</v>
+        <v>247.1756758084768</v>
       </c>
       <c r="AH3">
-        <v>233.3230937139945</v>
-      </c>
-      <c r="AI3">
-        <v>240.46768395871351</v>
-      </c>
-      <c r="AJ3">
-        <v>247.1756758084768</v>
-      </c>
-      <c r="AK3">
         <v>254.7977741460526</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>0.33416899999999999</v>
+        <v>0.221</v>
       </c>
       <c r="E4">
-        <v>0.21645900000000001</v>
+        <v>0.19889999999999999</v>
       </c>
       <c r="F4">
-        <v>0.22099999999999989</v>
+        <v>0.17900999999999989</v>
       </c>
       <c r="G4">
-        <v>0.221</v>
+        <v>0.16110899999999989</v>
       </c>
       <c r="H4">
-        <v>0.19889999999999999</v>
+        <v>0.1449981000000001</v>
       </c>
       <c r="I4">
-        <v>0.17900999999999989</v>
+        <v>0.13049828999999999</v>
       </c>
       <c r="J4">
-        <v>0.16110899999999989</v>
+        <v>0.117448461</v>
       </c>
       <c r="K4">
-        <v>0.1449981000000001</v>
+        <v>0.10570361490000001</v>
       </c>
       <c r="L4">
-        <v>0.13049828999999999</v>
+        <v>9.5133253410000063E-2</v>
       </c>
       <c r="M4">
-        <v>0.117448461</v>
+        <v>8.5619928069000054E-2</v>
       </c>
       <c r="N4">
-        <v>0.10570361490000001</v>
+        <v>7.7057935262099989E-2</v>
       </c>
       <c r="O4">
-        <v>9.5133253410000063E-2</v>
+        <v>6.9352141735889952E-2</v>
       </c>
       <c r="P4">
-        <v>8.5619928069000054E-2</v>
+        <v>6.2416927562300918E-2</v>
       </c>
       <c r="Q4">
-        <v>7.7057935262099989E-2</v>
+        <v>5.6175234806070971E-2</v>
       </c>
       <c r="R4">
-        <v>6.9352141735889952E-2</v>
+        <v>5.0557711325463717E-2</v>
       </c>
       <c r="S4">
-        <v>6.2416927562300918E-2</v>
+        <v>4.5501940192917333E-2</v>
       </c>
       <c r="T4">
-        <v>5.6175234806070971E-2</v>
+        <v>4.0951746173625687E-2</v>
       </c>
       <c r="U4">
-        <v>5.0557711325463717E-2</v>
+        <v>3.685657155626311E-2</v>
       </c>
       <c r="V4">
-        <v>4.5501940192917333E-2</v>
+        <v>3.3170914400636749E-2</v>
       </c>
       <c r="W4">
-        <v>4.0951746173625687E-2</v>
+        <v>2.9853822960573029E-2</v>
       </c>
       <c r="X4">
-        <v>3.685657155626311E-2</v>
+        <v>2.6868440664515689E-2</v>
       </c>
       <c r="Y4">
-        <v>3.3170914400636749E-2</v>
+        <v>2.4181596598064081E-2</v>
       </c>
       <c r="Z4">
-        <v>2.9853822960573029E-2</v>
+        <v>2.1763436938257719E-2</v>
       </c>
       <c r="AA4">
-        <v>2.6868440664515689E-2</v>
+        <v>1.9587093244431829E-2</v>
       </c>
       <c r="AB4">
-        <v>2.4181596598064081E-2</v>
+        <v>1.762838391998869E-2</v>
       </c>
       <c r="AC4">
-        <v>2.1763436938257719E-2</v>
+        <v>1.5865545527989831E-2</v>
       </c>
       <c r="AD4">
-        <v>1.9587093244431829E-2</v>
+        <v>1.427899097519086E-2</v>
       </c>
       <c r="AE4">
-        <v>1.762838391998869E-2</v>
+        <v>1.2851091877671691E-2</v>
       </c>
       <c r="AF4">
-        <v>1.5865545527989831E-2</v>
+        <v>1.156598268990461E-2</v>
       </c>
       <c r="AG4">
-        <v>1.427899097519086E-2</v>
+        <v>1.040938442091411E-2</v>
       </c>
       <c r="AH4">
-        <v>1.2851091877671691E-2</v>
-      </c>
-      <c r="AI4">
-        <v>1.156598268990461E-2</v>
-      </c>
-      <c r="AJ4">
-        <v>1.040938442091411E-2</v>
-      </c>
-      <c r="AK4">
         <v>9.3684459788226943E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
       <c r="D5">
-        <v>4.8319999999999999</v>
+        <v>6.5020880130041796</v>
       </c>
       <c r="E5">
-        <v>7.7829999999999986</v>
+        <v>9.7452400194904811</v>
       </c>
       <c r="F5">
-        <v>8.1985760189131209</v>
+        <v>9.7452400194904811</v>
       </c>
       <c r="G5">
-        <v>6.5020880130041796</v>
+        <v>9.7452400194904811</v>
       </c>
       <c r="H5">
         <v>9.7452400194904811</v>
@@ -1097,40 +1069,31 @@
       <c r="AH5">
         <v>9.7452400194904811</v>
       </c>
-      <c r="AI5">
-        <v>9.7452400194904811</v>
-      </c>
-      <c r="AJ5">
-        <v>9.7452400194904811</v>
-      </c>
-      <c r="AK5">
-        <v>9.7452400194904811</v>
-      </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6">
-        <v>1.1100000000000001</v>
+        <v>3.65500000731</v>
       </c>
       <c r="E6">
-        <v>1.6180000000000001</v>
+        <v>3.652157844022315</v>
       </c>
       <c r="F6">
-        <v>3.65500000731</v>
+        <v>3.6521578440223181</v>
       </c>
       <c r="G6">
-        <v>3.65500000731</v>
+        <v>3.6521578440223181</v>
       </c>
       <c r="H6">
-        <v>3.652157844022315</v>
+        <v>3.6521578440223181</v>
       </c>
       <c r="I6">
         <v>3.6521578440223181</v>
@@ -1160,156 +1123,147 @@
         <v>3.6521578440223181</v>
       </c>
       <c r="R6">
-        <v>3.6521578440223181</v>
+        <v>6.729955098108805</v>
       </c>
       <c r="S6">
-        <v>3.6521578440223181</v>
+        <v>6.9723013385880543</v>
       </c>
       <c r="T6">
-        <v>3.6521578440223181</v>
+        <v>7.2146475790673046</v>
       </c>
       <c r="U6">
-        <v>6.729955098108805</v>
+        <v>7.4569938195465584</v>
       </c>
       <c r="V6">
-        <v>6.9723013385880543</v>
+        <v>7.6266361878820277</v>
       </c>
       <c r="W6">
-        <v>7.2146475790673046</v>
+        <v>7.796278556217505</v>
       </c>
       <c r="X6">
-        <v>7.4569938195465584</v>
+        <v>7.9659209245529858</v>
       </c>
       <c r="Y6">
-        <v>7.6266361878820277</v>
+        <v>8.1355632928884578</v>
       </c>
       <c r="Z6">
-        <v>7.796278556217505</v>
+        <v>8.3052056612239387</v>
       </c>
       <c r="AA6">
-        <v>7.9659209245529858</v>
+        <v>8.8449107387712331</v>
       </c>
       <c r="AB6">
-        <v>8.1355632928884578</v>
+        <v>9.6617549795046607</v>
       </c>
       <c r="AC6">
-        <v>8.3052056612239387</v>
+        <v>10.21643778175229</v>
       </c>
       <c r="AD6">
-        <v>8.8449107387712331</v>
+        <v>11.81915514072462</v>
       </c>
       <c r="AE6">
-        <v>9.6617549795046607</v>
+        <v>12.547961293294181</v>
       </c>
       <c r="AF6">
-        <v>10.21643778175229</v>
+        <v>14.197781794604801</v>
       </c>
       <c r="AG6">
-        <v>11.81915514072462</v>
+        <v>15.49004465271231</v>
       </c>
       <c r="AH6">
-        <v>12.547961293294181</v>
-      </c>
-      <c r="AI6">
-        <v>14.197781794604801</v>
-      </c>
-      <c r="AJ6">
-        <v>15.49004465271231</v>
-      </c>
-      <c r="AK6">
         <v>16.93273182228527</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7">
-        <v>4.5419999999999998</v>
+        <v>1.1462920302188411</v>
       </c>
       <c r="E7">
-        <v>4.5589999999999993</v>
+        <v>5.3559925325794318</v>
       </c>
       <c r="F7">
-        <v>3.9104550102779938</v>
+        <v>5.5243435616332892</v>
       </c>
       <c r="G7">
-        <v>1.1462920302188411</v>
+        <v>5.739555186403166</v>
       </c>
       <c r="H7">
-        <v>5.3559925325794318</v>
+        <v>6.090141865463778</v>
       </c>
       <c r="I7">
-        <v>5.5243435616332892</v>
+        <v>6.2116322988016126</v>
       </c>
       <c r="J7">
-        <v>5.739555186403166</v>
+        <v>7.0134691588313327</v>
       </c>
       <c r="K7">
-        <v>6.090141865463778</v>
+        <v>7.4248010545608549</v>
       </c>
       <c r="L7">
-        <v>6.2116322988016126</v>
+        <v>9.2679844860577454</v>
       </c>
       <c r="M7">
-        <v>7.0134691588313327</v>
+        <v>11.46869690709166</v>
       </c>
       <c r="N7">
-        <v>7.4248010545608549</v>
+        <v>13.75618820908119</v>
       </c>
       <c r="O7">
-        <v>9.2679844860577454</v>
+        <v>17.730660956847519</v>
       </c>
       <c r="P7">
-        <v>11.46869690709166</v>
+        <v>18.910853737843649</v>
       </c>
       <c r="Q7">
-        <v>13.75618820908119</v>
+        <v>23.124836197047429</v>
       </c>
       <c r="R7">
-        <v>17.730660956847519</v>
+        <v>23.560466179444511</v>
       </c>
       <c r="S7">
-        <v>18.910853737843649</v>
+        <v>25.33249092855781</v>
       </c>
       <c r="T7">
-        <v>23.124836197047429</v>
+        <v>26.535246218602389</v>
       </c>
       <c r="U7">
-        <v>23.560466179444511</v>
+        <v>26.838972301946988</v>
       </c>
       <c r="V7">
-        <v>25.33249092855781</v>
+        <v>27.186087825769341</v>
       </c>
       <c r="W7">
-        <v>26.535246218602389</v>
+        <v>27.533203349591719</v>
       </c>
       <c r="X7">
-        <v>26.838972301946988</v>
+        <v>27.880318873414129</v>
       </c>
       <c r="Y7">
-        <v>27.186087825769341</v>
+        <v>29.963012016348461</v>
       </c>
       <c r="Z7">
-        <v>27.533203349591719</v>
+        <v>32.045705159282782</v>
       </c>
       <c r="AA7">
-        <v>27.880318873414129</v>
+        <v>34.1283983022171</v>
       </c>
       <c r="AB7">
-        <v>29.963012016348461</v>
+        <v>35.863975921329001</v>
       </c>
       <c r="AC7">
-        <v>32.045705159282782</v>
+        <v>35.863975921329001</v>
       </c>
       <c r="AD7">
-        <v>34.1283983022171</v>
+        <v>35.863975921329001</v>
       </c>
       <c r="AE7">
         <v>35.863975921329001</v>
@@ -1323,97 +1277,88 @@
       <c r="AH7">
         <v>35.863975921329001</v>
       </c>
-      <c r="AI7">
-        <v>35.863975921329001</v>
-      </c>
-      <c r="AJ7">
-        <v>35.863975921329001</v>
-      </c>
-      <c r="AK7">
-        <v>35.863975921329001</v>
-      </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="D8">
-        <v>18.6464</v>
+        <v>18.749432966072671</v>
       </c>
       <c r="E8">
-        <v>20.985342293999999</v>
+        <v>18.90817887571653</v>
       </c>
       <c r="F8">
-        <v>17.908999999999999</v>
+        <v>19.115057852362629</v>
       </c>
       <c r="G8">
-        <v>18.749432966072671</v>
+        <v>19.30353796412113</v>
       </c>
       <c r="H8">
-        <v>18.90817887571653</v>
+        <v>19.405532222521419</v>
       </c>
       <c r="I8">
-        <v>19.115057852362629</v>
+        <v>19.711653926521429</v>
       </c>
       <c r="J8">
-        <v>19.30353796412113</v>
+        <v>20.017775630521431</v>
       </c>
       <c r="K8">
-        <v>19.405532222521419</v>
+        <v>20.32389733452144</v>
       </c>
       <c r="L8">
-        <v>19.711653926521429</v>
+        <v>20.630019038521429</v>
       </c>
       <c r="M8">
-        <v>20.017775630521431</v>
+        <v>20.93614074252142</v>
       </c>
       <c r="N8">
-        <v>20.32389733452144</v>
+        <v>21.24226244652143</v>
       </c>
       <c r="O8">
-        <v>20.630019038521429</v>
+        <v>21.548384150521422</v>
       </c>
       <c r="P8">
-        <v>20.93614074252142</v>
+        <v>21.85450585452142</v>
       </c>
       <c r="Q8">
-        <v>21.24226244652143</v>
+        <v>22.16062755852143</v>
       </c>
       <c r="R8">
-        <v>21.548384150521422</v>
+        <v>22.469548004665391</v>
       </c>
       <c r="S8">
-        <v>21.85450585452142</v>
+        <v>22.784065935097271</v>
       </c>
       <c r="T8">
-        <v>22.16062755852143</v>
+        <v>23.09802411710038</v>
       </c>
       <c r="U8">
-        <v>22.469548004665391</v>
+        <v>23.40974330538829</v>
       </c>
       <c r="V8">
-        <v>22.784065935097271</v>
+        <v>23.71586500938831</v>
       </c>
       <c r="W8">
-        <v>23.09802411710038</v>
+        <v>23.597133519908301</v>
       </c>
       <c r="X8">
-        <v>23.40974330538829</v>
+        <v>23.597133519908311</v>
       </c>
       <c r="Y8">
-        <v>23.71586500938831</v>
+        <v>23.597133519908301</v>
       </c>
       <c r="Z8">
         <v>23.597133519908301</v>
       </c>
       <c r="AA8">
-        <v>23.597133519908311</v>
+        <v>23.597133519908301</v>
       </c>
       <c r="AB8">
         <v>23.597133519908301</v>
@@ -1434,39 +1379,30 @@
         <v>23.597133519908301</v>
       </c>
       <c r="AH8">
-        <v>23.597133519908301</v>
-      </c>
-      <c r="AI8">
-        <v>23.597133519908301</v>
-      </c>
-      <c r="AJ8">
-        <v>23.597133519908301</v>
-      </c>
-      <c r="AK8">
         <v>23.597133519908311</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9">
-        <v>24.43139686</v>
+        <v>25.550617358185189</v>
       </c>
       <c r="E9">
-        <v>26.673800419999999</v>
+        <v>44.595408089190833</v>
       </c>
       <c r="F9">
-        <v>25.546654794000009</v>
+        <v>44.595408089190833</v>
       </c>
       <c r="G9">
-        <v>25.550617358185189</v>
+        <v>44.595408089190833</v>
       </c>
       <c r="H9">
         <v>44.595408089190833</v>
@@ -1475,40 +1411,40 @@
         <v>44.595408089190833</v>
       </c>
       <c r="J9">
-        <v>44.595408089190833</v>
+        <v>50.052888100105783</v>
       </c>
       <c r="K9">
-        <v>44.595408089190833</v>
+        <v>50.052888100105783</v>
       </c>
       <c r="L9">
-        <v>44.595408089190833</v>
+        <v>55.510368111020703</v>
       </c>
       <c r="M9">
-        <v>50.052888100105783</v>
+        <v>55.510368111020703</v>
       </c>
       <c r="N9">
-        <v>50.052888100105783</v>
+        <v>55.510368111020703</v>
       </c>
       <c r="O9">
         <v>55.510368111020703</v>
       </c>
       <c r="P9">
-        <v>55.510368111020703</v>
+        <v>60.967848121935702</v>
       </c>
       <c r="Q9">
-        <v>55.510368111020703</v>
+        <v>66.425328132850694</v>
       </c>
       <c r="R9">
-        <v>55.510368111020703</v>
+        <v>66.425328132850694</v>
       </c>
       <c r="S9">
-        <v>60.967848121935702</v>
+        <v>71.882808143765573</v>
       </c>
       <c r="T9">
-        <v>66.425328132850694</v>
+        <v>71.882808143765573</v>
       </c>
       <c r="U9">
-        <v>66.425328132850694</v>
+        <v>71.882808143765573</v>
       </c>
       <c r="V9">
         <v>71.882808143765573</v>
@@ -1549,127 +1485,3289 @@
       <c r="AH9">
         <v>71.882808143765573</v>
       </c>
-      <c r="AI9">
-        <v>71.882808143765573</v>
-      </c>
-      <c r="AJ9">
-        <v>71.882808143765573</v>
-      </c>
-      <c r="AK9">
-        <v>71.882808143765573</v>
-      </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10">
-        <v>209.94179702</v>
+        <v>206.60260791436829</v>
       </c>
       <c r="E10">
-        <v>214.039342197</v>
+        <v>219.00807489596369</v>
       </c>
       <c r="F10">
-        <v>222.70768583050099</v>
+        <v>231.29830266382089</v>
       </c>
       <c r="G10">
-        <v>206.60260791436829</v>
+        <v>244.22943606559619</v>
       </c>
       <c r="H10">
-        <v>219.00807489596369</v>
+        <v>250.34201409153141</v>
       </c>
       <c r="I10">
-        <v>231.29830266382089</v>
+        <v>255.9111526517087</v>
       </c>
       <c r="J10">
-        <v>244.22943606559619</v>
+        <v>261.37175177125152</v>
       </c>
       <c r="K10">
-        <v>250.34201409153141</v>
+        <v>266.89375540615191</v>
       </c>
       <c r="L10">
-        <v>255.9111526517087</v>
+        <v>271.14451565575382</v>
       </c>
       <c r="M10">
-        <v>261.37175177125152</v>
+        <v>277.38374416089471</v>
       </c>
       <c r="N10">
-        <v>266.89375540615191</v>
+        <v>282.65838475161848</v>
       </c>
       <c r="O10">
-        <v>271.14451565575382</v>
+        <v>287.70161560632312</v>
       </c>
       <c r="P10">
-        <v>277.38374416089471</v>
+        <v>293.94424207602577</v>
       </c>
       <c r="Q10">
-        <v>282.65838475161848</v>
+        <v>299.33898180654228</v>
       </c>
       <c r="R10">
-        <v>287.70161560632312</v>
+        <v>305.22142265842558</v>
       </c>
       <c r="S10">
-        <v>293.94424207602577</v>
+        <v>310.87065885166828</v>
       </c>
       <c r="T10">
-        <v>299.33898180654228</v>
+        <v>316.23932133023072</v>
       </c>
       <c r="U10">
-        <v>305.22142265842558</v>
+        <v>321.47780829355241</v>
       </c>
       <c r="V10">
-        <v>310.87065885166828</v>
+        <v>326.58182542470649</v>
       </c>
       <c r="W10">
-        <v>316.23932133023072</v>
+        <v>332.7916104736762</v>
       </c>
       <c r="X10">
-        <v>321.47780829355241</v>
+        <v>337.59710510796089</v>
       </c>
       <c r="Y10">
-        <v>326.58182542470649</v>
+        <v>343.99711526874728</v>
       </c>
       <c r="Z10">
-        <v>332.7916104736762</v>
+        <v>350.93726414627082</v>
       </c>
       <c r="AA10">
-        <v>337.59710510796089</v>
+        <v>357.88459782619128</v>
       </c>
       <c r="AB10">
-        <v>343.99711526874728</v>
+        <v>364.44670348290538</v>
       </c>
       <c r="AC10">
-        <v>350.93726414627082</v>
+        <v>371.48596113588098</v>
       </c>
       <c r="AD10">
-        <v>357.88459782619128</v>
+        <v>378.42609954008719</v>
       </c>
       <c r="AE10">
-        <v>364.44670348290538</v>
+        <v>386.9730637036597</v>
       </c>
       <c r="AF10">
-        <v>371.48596113588098</v>
+        <v>395.76618934050163</v>
       </c>
       <c r="AG10">
-        <v>378.42609954008719</v>
+        <v>403.76528745010341</v>
       </c>
       <c r="AH10">
-        <v>386.9730637036597</v>
-      </c>
-      <c r="AI10">
-        <v>395.76618934050163</v>
-      </c>
-      <c r="AJ10">
-        <v>403.76528745010341</v>
-      </c>
-      <c r="AK10">
         <v>412.82903201880998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>36.919024173577441</v>
+      </c>
+      <c r="E11">
+        <v>38.038694665178703</v>
+      </c>
+      <c r="F11">
+        <v>35.292868218381408</v>
+      </c>
+      <c r="G11">
+        <v>35.292868218381408</v>
+      </c>
+      <c r="H11">
+        <v>35.292868218381408</v>
+      </c>
+      <c r="I11">
+        <v>35.292868218381408</v>
+      </c>
+      <c r="J11">
+        <v>34.83008966286905</v>
+      </c>
+      <c r="K11">
+        <v>36.901920135169568</v>
+      </c>
+      <c r="L11">
+        <v>36.901920135169568</v>
+      </c>
+      <c r="M11">
+        <v>36.901920135169568</v>
+      </c>
+      <c r="N11">
+        <v>36.901920135169568</v>
+      </c>
+      <c r="O11">
+        <v>34.062390149446543</v>
+      </c>
+      <c r="P11">
+        <v>32.01864674047976</v>
+      </c>
+      <c r="Q11">
+        <v>28.816782066431781</v>
+      </c>
+      <c r="R11">
+        <v>25.935103859788601</v>
+      </c>
+      <c r="S11">
+        <v>20.748083087830889</v>
+      </c>
+      <c r="T11">
+        <v>16.5984664702647</v>
+      </c>
+      <c r="U11">
+        <v>11.6189265291853</v>
+      </c>
+      <c r="V11">
+        <v>6.9713559175111728</v>
+      </c>
+      <c r="W11">
+        <v>3.4856779587555899</v>
+      </c>
+      <c r="X11">
+        <v>1.742838979377795</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>113.859153366</v>
+      </c>
+      <c r="E12">
+        <v>97.218106056022634</v>
+      </c>
+      <c r="F12">
+        <v>113.5036033864654</v>
+      </c>
+      <c r="G12">
+        <v>127.8120622310372</v>
+      </c>
+      <c r="H12">
+        <v>135.50878089294821</v>
+      </c>
+      <c r="I12">
+        <v>143.03073815964351</v>
+      </c>
+      <c r="J12">
+        <v>144.93015657437871</v>
+      </c>
+      <c r="K12">
+        <v>150.97643095165461</v>
+      </c>
+      <c r="L12">
+        <v>151.57712467878389</v>
+      </c>
+      <c r="M12">
+        <v>160.27837931427479</v>
+      </c>
+      <c r="N12">
+        <v>166.37880307114389</v>
+      </c>
+      <c r="O12">
+        <v>173.99889951621191</v>
+      </c>
+      <c r="P12">
+        <v>174.89155477521109</v>
+      </c>
+      <c r="Q12">
+        <v>174.89155477521109</v>
+      </c>
+      <c r="R12">
+        <v>174.89155477521109</v>
+      </c>
+      <c r="S12">
+        <v>174.89155477521109</v>
+      </c>
+      <c r="T12">
+        <v>174.89155477521109</v>
+      </c>
+      <c r="U12">
+        <v>174.89155477521109</v>
+      </c>
+      <c r="V12">
+        <v>170.8408310507281</v>
+      </c>
+      <c r="W12">
+        <v>166.79010732624519</v>
+      </c>
+      <c r="X12">
+        <v>162.73938360176251</v>
+      </c>
+      <c r="Y12">
+        <v>158.6886598772796</v>
+      </c>
+      <c r="Z12">
+        <v>154.63793615279681</v>
+      </c>
+      <c r="AA12">
+        <v>150.58721242831379</v>
+      </c>
+      <c r="AB12">
+        <v>137.2141859969355</v>
+      </c>
+      <c r="AC12">
+        <v>127.0550882526509</v>
+      </c>
+      <c r="AD12">
+        <v>118.71278903878439</v>
+      </c>
+      <c r="AE12">
+        <v>110.08669919504371</v>
+      </c>
+      <c r="AF12">
+        <v>110.3104782194782</v>
+      </c>
+      <c r="AG12">
+        <v>100.8326734126272</v>
+      </c>
+      <c r="AH12">
+        <v>97.534555254000978</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0.17477700373248409</v>
+      </c>
+      <c r="Q13">
+        <v>2.3885053573863919</v>
+      </c>
+      <c r="R13">
+        <v>14.263438797262671</v>
+      </c>
+      <c r="S13">
+        <v>17.310067845408501</v>
+      </c>
+      <c r="T13">
+        <v>25.938288008917741</v>
+      </c>
+      <c r="U13">
+        <v>33.118924997245777</v>
+      </c>
+      <c r="V13">
+        <v>45.935374026423638</v>
+      </c>
+      <c r="W13">
+        <v>56.316705091150453</v>
+      </c>
+      <c r="X13">
+        <v>62.863104356690293</v>
+      </c>
+      <c r="Y13">
+        <v>68.231598198523173</v>
+      </c>
+      <c r="Z13">
+        <v>72.371693661036133</v>
+      </c>
+      <c r="AA13">
+        <v>80.182930322442431</v>
+      </c>
+      <c r="AB13">
+        <v>91.278575311342593</v>
+      </c>
+      <c r="AC13">
+        <v>101.0062043071983</v>
+      </c>
+      <c r="AD13">
+        <v>107.808143708503</v>
+      </c>
+      <c r="AE13">
+        <v>118.9660255203282</v>
+      </c>
+      <c r="AF13">
+        <v>121.2713028018965</v>
+      </c>
+      <c r="AG13">
+        <v>131.23305351295801</v>
+      </c>
+      <c r="AH13">
+        <v>140.61760568137811</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>0.22099999999999989</v>
+      </c>
+      <c r="E14">
+        <v>0.19889999999999999</v>
+      </c>
+      <c r="F14">
+        <v>0.17900999999999989</v>
+      </c>
+      <c r="G14">
+        <v>0.161109</v>
+      </c>
+      <c r="H14">
+        <v>0.1449981000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.13049828999999999</v>
+      </c>
+      <c r="J14">
+        <v>0.11744846099999991</v>
+      </c>
+      <c r="K14">
+        <v>0.10570361490000001</v>
+      </c>
+      <c r="L14">
+        <v>9.5133253410000021E-2</v>
+      </c>
+      <c r="M14">
+        <v>8.5619928069000054E-2</v>
+      </c>
+      <c r="N14">
+        <v>7.7057935262099989E-2</v>
+      </c>
+      <c r="O14">
+        <v>6.9352141735890022E-2</v>
+      </c>
+      <c r="P14">
+        <v>0.44676000089352003</v>
+      </c>
+      <c r="Q14">
+        <v>0.44676000089352003</v>
+      </c>
+      <c r="R14">
+        <v>0.44676000089352003</v>
+      </c>
+      <c r="S14">
+        <v>0.44676000089352003</v>
+      </c>
+      <c r="T14">
+        <v>4.0951746173625722E-2</v>
+      </c>
+      <c r="U14">
+        <v>3.685657155626311E-2</v>
+      </c>
+      <c r="V14">
+        <v>3.3170914400636721E-2</v>
+      </c>
+      <c r="W14">
+        <v>2.9853822960573081E-2</v>
+      </c>
+      <c r="X14">
+        <v>2.6868440664515748E-2</v>
+      </c>
+      <c r="Y14">
+        <v>2.4181596598064219E-2</v>
+      </c>
+      <c r="Z14">
+        <v>2.176343693825783E-2</v>
+      </c>
+      <c r="AA14">
+        <v>1.9587093244431999E-2</v>
+      </c>
+      <c r="AB14">
+        <v>1.7628383919988781E-2</v>
+      </c>
+      <c r="AC14">
+        <v>1.5865545527989858E-2</v>
+      </c>
+      <c r="AD14">
+        <v>1.4278990975190919E-2</v>
+      </c>
+      <c r="AE14">
+        <v>1.285109187767181E-2</v>
+      </c>
+      <c r="AF14">
+        <v>1.156598268990458E-2</v>
+      </c>
+      <c r="AG14">
+        <v>1.0409384420914171E-2</v>
+      </c>
+      <c r="AH14">
+        <v>9.3684459788226943E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>6.3623120144019394</v>
+      </c>
+      <c r="E15">
+        <v>9.7452400194904811</v>
+      </c>
+      <c r="F15">
+        <v>9.7452400194904811</v>
+      </c>
+      <c r="G15">
+        <v>9.7452400194904811</v>
+      </c>
+      <c r="H15">
+        <v>9.7452400194904811</v>
+      </c>
+      <c r="I15">
+        <v>9.7452400194904811</v>
+      </c>
+      <c r="J15">
+        <v>9.7452400194904811</v>
+      </c>
+      <c r="K15">
+        <v>9.7452400194904811</v>
+      </c>
+      <c r="L15">
+        <v>9.7452400194904811</v>
+      </c>
+      <c r="M15">
+        <v>9.7452400194904811</v>
+      </c>
+      <c r="N15">
+        <v>9.7452400194904811</v>
+      </c>
+      <c r="O15">
+        <v>9.7452400194904811</v>
+      </c>
+      <c r="P15">
+        <v>9.7452400194904811</v>
+      </c>
+      <c r="Q15">
+        <v>9.7452400194904811</v>
+      </c>
+      <c r="R15">
+        <v>9.7452400194904811</v>
+      </c>
+      <c r="S15">
+        <v>9.7452400194904811</v>
+      </c>
+      <c r="T15">
+        <v>9.7452400194904811</v>
+      </c>
+      <c r="U15">
+        <v>9.7452400194904811</v>
+      </c>
+      <c r="V15">
+        <v>9.7452400194904811</v>
+      </c>
+      <c r="W15">
+        <v>9.7452400194904811</v>
+      </c>
+      <c r="X15">
+        <v>9.7452400194904811</v>
+      </c>
+      <c r="Y15">
+        <v>9.7452400194904811</v>
+      </c>
+      <c r="Z15">
+        <v>9.7452400194904811</v>
+      </c>
+      <c r="AA15">
+        <v>9.7452400194904811</v>
+      </c>
+      <c r="AB15">
+        <v>9.7452400194904811</v>
+      </c>
+      <c r="AC15">
+        <v>9.7452400194904811</v>
+      </c>
+      <c r="AD15">
+        <v>9.7452400194904811</v>
+      </c>
+      <c r="AE15">
+        <v>9.7452400194904811</v>
+      </c>
+      <c r="AF15">
+        <v>9.7452400194904811</v>
+      </c>
+      <c r="AG15">
+        <v>9.7452400194904811</v>
+      </c>
+      <c r="AH15">
+        <v>9.7452400194904811</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>3.65500000731</v>
+      </c>
+      <c r="E16">
+        <v>3.6521578440223181</v>
+      </c>
+      <c r="F16">
+        <v>3.652157844022315</v>
+      </c>
+      <c r="G16">
+        <v>3.652157844022315</v>
+      </c>
+      <c r="H16">
+        <v>3.652157844022315</v>
+      </c>
+      <c r="I16">
+        <v>3.652157844022315</v>
+      </c>
+      <c r="J16">
+        <v>3.652157844022315</v>
+      </c>
+      <c r="K16">
+        <v>3.652157844022315</v>
+      </c>
+      <c r="L16">
+        <v>3.652157844022315</v>
+      </c>
+      <c r="M16">
+        <v>3.652157844022315</v>
+      </c>
+      <c r="N16">
+        <v>5.2764048282614118</v>
+      </c>
+      <c r="O16">
+        <v>5.2764048282614118</v>
+      </c>
+      <c r="P16">
+        <v>6.5542666757658523</v>
+      </c>
+      <c r="Q16">
+        <v>6.947522676311805</v>
+      </c>
+      <c r="R16">
+        <v>7.3643740368905108</v>
+      </c>
+      <c r="S16">
+        <v>10.155427280158531</v>
+      </c>
+      <c r="T16">
+        <v>12.795838372999739</v>
+      </c>
+      <c r="U16">
+        <v>16.122756349979689</v>
+      </c>
+      <c r="V16">
+        <v>17.576441056655291</v>
+      </c>
+      <c r="W16">
+        <v>20.076212381480481</v>
+      </c>
+      <c r="X16">
+        <v>22.816948069040031</v>
+      </c>
+      <c r="Y16">
+        <v>25.860327349649751</v>
+      </c>
+      <c r="Z16">
+        <v>29.239313458635358</v>
+      </c>
+      <c r="AA16">
+        <v>32.990456316225398</v>
+      </c>
+      <c r="AB16">
+        <v>37.154282761147698</v>
+      </c>
+      <c r="AC16">
+        <v>40.309336299095847</v>
+      </c>
+      <c r="AD16">
+        <v>43.990026507635982</v>
+      </c>
+      <c r="AE16">
+        <v>48.486255237602421</v>
+      </c>
+      <c r="AF16">
+        <v>50.943398267712467</v>
+      </c>
+      <c r="AG16">
+        <v>55.888225999099909</v>
+      </c>
+      <c r="AH16">
+        <v>58.654584171027722</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>4.3756486995760104</v>
+      </c>
+      <c r="E17">
+        <v>5.3559925325794318</v>
+      </c>
+      <c r="F17">
+        <v>5.5243435616332892</v>
+      </c>
+      <c r="G17">
+        <v>5.739555186403166</v>
+      </c>
+      <c r="H17">
+        <v>6.090141865463778</v>
+      </c>
+      <c r="I17">
+        <v>6.2116322988016126</v>
+      </c>
+      <c r="J17">
+        <v>7.0134691588313327</v>
+      </c>
+      <c r="K17">
+        <v>7.4248010545608549</v>
+      </c>
+      <c r="L17">
+        <v>9.2679844860577454</v>
+      </c>
+      <c r="M17">
+        <v>11.46869690709166</v>
+      </c>
+      <c r="N17">
+        <v>13.75618820908119</v>
+      </c>
+      <c r="O17">
+        <v>17.730660956847519</v>
+      </c>
+      <c r="P17">
+        <v>18.910853737843649</v>
+      </c>
+      <c r="Q17">
+        <v>23.124836197047429</v>
+      </c>
+      <c r="R17">
+        <v>23.560466179444511</v>
+      </c>
+      <c r="S17">
+        <v>27.068068547669739</v>
+      </c>
+      <c r="T17">
+        <v>28.27082383771431</v>
+      </c>
+      <c r="U17">
+        <v>30.310127540170829</v>
+      </c>
+      <c r="V17">
+        <v>32.05466073979737</v>
+      </c>
+      <c r="W17">
+        <v>35.648166216511612</v>
+      </c>
+      <c r="X17">
+        <v>39.36243700396998</v>
+      </c>
+      <c r="Y17">
+        <v>44.940900466482773</v>
+      </c>
+      <c r="Z17">
+        <v>50.309513033206898</v>
+      </c>
+      <c r="AA17">
+        <v>53.553707874738627</v>
+      </c>
+      <c r="AB17">
+        <v>58.983658924521002</v>
+      </c>
+      <c r="AC17">
+        <v>63.972150633699783</v>
+      </c>
+      <c r="AD17">
+        <v>69.167217943204321</v>
+      </c>
+      <c r="AE17">
+        <v>70.898832635553134</v>
+      </c>
+      <c r="AF17">
+        <v>74.482100495078797</v>
+      </c>
+      <c r="AG17">
+        <v>76.234108865240586</v>
+      </c>
+      <c r="AH17">
+        <v>79.577352010928792</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>18.749432966072678</v>
+      </c>
+      <c r="E18">
+        <v>18.908178875716519</v>
+      </c>
+      <c r="F18">
+        <v>19.115057852362629</v>
+      </c>
+      <c r="G18">
+        <v>19.30353796412113</v>
+      </c>
+      <c r="H18">
+        <v>19.405532222521419</v>
+      </c>
+      <c r="I18">
+        <v>19.711653926521421</v>
+      </c>
+      <c r="J18">
+        <v>20.01777563052142</v>
+      </c>
+      <c r="K18">
+        <v>20.323897334521419</v>
+      </c>
+      <c r="L18">
+        <v>20.630019038521429</v>
+      </c>
+      <c r="M18">
+        <v>20.93614074252142</v>
+      </c>
+      <c r="N18">
+        <v>21.242262446521419</v>
+      </c>
+      <c r="O18">
+        <v>21.548384150521422</v>
+      </c>
+      <c r="P18">
+        <v>24.79495579502942</v>
+      </c>
+      <c r="Q18">
+        <v>25.101077499029419</v>
+      </c>
+      <c r="R18">
+        <v>25.40999794517338</v>
+      </c>
+      <c r="S18">
+        <v>25.72451587560527</v>
+      </c>
+      <c r="T18">
+        <v>26.038474057608369</v>
+      </c>
+      <c r="U18">
+        <v>26.350193245896289</v>
+      </c>
+      <c r="V18">
+        <v>26.656314949896291</v>
+      </c>
+      <c r="W18">
+        <v>26.53758346041629</v>
+      </c>
+      <c r="X18">
+        <v>26.53758346041629</v>
+      </c>
+      <c r="Y18">
+        <v>26.53758346041629</v>
+      </c>
+      <c r="Z18">
+        <v>26.142515839384359</v>
+      </c>
+      <c r="AA18">
+        <v>23.597133519908301</v>
+      </c>
+      <c r="AB18">
+        <v>23.597133519908301</v>
+      </c>
+      <c r="AC18">
+        <v>23.597133519908301</v>
+      </c>
+      <c r="AD18">
+        <v>23.597133519908301</v>
+      </c>
+      <c r="AE18">
+        <v>23.597133519908319</v>
+      </c>
+      <c r="AF18">
+        <v>23.597133519908301</v>
+      </c>
+      <c r="AG18">
+        <v>23.597133519908301</v>
+      </c>
+      <c r="AH18">
+        <v>23.597133519908301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>25.5506173581852</v>
+      </c>
+      <c r="E19">
+        <v>44.595408089190833</v>
+      </c>
+      <c r="F19">
+        <v>44.595408089190833</v>
+      </c>
+      <c r="G19">
+        <v>44.595408089190833</v>
+      </c>
+      <c r="H19">
+        <v>44.595408089190833</v>
+      </c>
+      <c r="I19">
+        <v>44.595408089190833</v>
+      </c>
+      <c r="J19">
+        <v>50.052888100105783</v>
+      </c>
+      <c r="K19">
+        <v>50.052888100105783</v>
+      </c>
+      <c r="L19">
+        <v>55.510368111020703</v>
+      </c>
+      <c r="M19">
+        <v>55.510368111020703</v>
+      </c>
+      <c r="N19">
+        <v>55.510368111020703</v>
+      </c>
+      <c r="O19">
+        <v>55.510368111020703</v>
+      </c>
+      <c r="P19">
+        <v>60.967848121935702</v>
+      </c>
+      <c r="Q19">
+        <v>66.425328132850694</v>
+      </c>
+      <c r="R19">
+        <v>66.425328132850694</v>
+      </c>
+      <c r="S19">
+        <v>71.882808143765573</v>
+      </c>
+      <c r="T19">
+        <v>73.442088146884174</v>
+      </c>
+      <c r="U19">
+        <v>75.001368150002705</v>
+      </c>
+      <c r="V19">
+        <v>76.560648153121264</v>
+      </c>
+      <c r="W19">
+        <v>78.119928156239823</v>
+      </c>
+      <c r="X19">
+        <v>79.679208159358481</v>
+      </c>
+      <c r="Y19">
+        <v>81.238488162476884</v>
+      </c>
+      <c r="Z19">
+        <v>82.797768165595471</v>
+      </c>
+      <c r="AA19">
+        <v>84.357048168714059</v>
+      </c>
+      <c r="AB19">
+        <v>85.916328171832674</v>
+      </c>
+      <c r="AC19">
+        <v>87.475608174951162</v>
+      </c>
+      <c r="AD19">
+        <v>89.03488817806975</v>
+      </c>
+      <c r="AE19">
+        <v>90.594168181188309</v>
+      </c>
+      <c r="AF19">
+        <v>92.153448184306782</v>
+      </c>
+      <c r="AG19">
+        <v>93.712728187425427</v>
+      </c>
+      <c r="AH19">
+        <v>95.272008190543957</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>209.69218858512329</v>
+      </c>
+      <c r="E20">
+        <v>217.71267808220091</v>
+      </c>
+      <c r="F20">
+        <v>231.60768897154631</v>
+      </c>
+      <c r="G20">
+        <v>246.3019385526465</v>
+      </c>
+      <c r="H20">
+        <v>254.4351272520185</v>
+      </c>
+      <c r="I20">
+        <v>262.37019684605161</v>
+      </c>
+      <c r="J20">
+        <v>270.359225451219</v>
+      </c>
+      <c r="K20">
+        <v>279.18303905442508</v>
+      </c>
+      <c r="L20">
+        <v>287.37994756647618</v>
+      </c>
+      <c r="M20">
+        <v>298.57852300166002</v>
+      </c>
+      <c r="N20">
+        <v>308.88824475595078</v>
+      </c>
+      <c r="O20">
+        <v>317.94169987353592</v>
+      </c>
+      <c r="P20">
+        <v>328.5049028703819</v>
+      </c>
+      <c r="Q20">
+        <v>337.88760672465253</v>
+      </c>
+      <c r="R20">
+        <v>348.04226374700539</v>
+      </c>
+      <c r="S20">
+        <v>357.9725255760336</v>
+      </c>
+      <c r="T20">
+        <v>367.76172543526422</v>
+      </c>
+      <c r="U20">
+        <v>377.19594817873838</v>
+      </c>
+      <c r="V20">
+        <v>386.37403682802432</v>
+      </c>
+      <c r="W20">
+        <v>396.74947443325038</v>
+      </c>
+      <c r="X20">
+        <v>405.51361209077038</v>
+      </c>
+      <c r="Y20">
+        <v>415.26697913091698</v>
+      </c>
+      <c r="Z20">
+        <v>425.26574376708368</v>
+      </c>
+      <c r="AA20">
+        <v>435.03331574307748</v>
+      </c>
+      <c r="AB20">
+        <v>443.90703308909832</v>
+      </c>
+      <c r="AC20">
+        <v>453.17662675252279</v>
+      </c>
+      <c r="AD20">
+        <v>462.06971790657138</v>
+      </c>
+      <c r="AE20">
+        <v>472.38720540099229</v>
+      </c>
+      <c r="AF20">
+        <v>482.51466749056152</v>
+      </c>
+      <c r="AG20">
+        <v>491.25357290117091</v>
+      </c>
+      <c r="AH20">
+        <v>505.0078472932571</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>851.86900000000139</v>
+      </c>
+      <c r="E21">
+        <v>1014.602734933783</v>
+      </c>
+      <c r="F21">
+        <v>1065.6536101471891</v>
+      </c>
+      <c r="G21">
+        <v>970.54027896266325</v>
+      </c>
+      <c r="H21">
+        <v>915.48646597393247</v>
+      </c>
+      <c r="I21">
+        <v>719.68740720769506</v>
+      </c>
+      <c r="J21">
+        <v>698.74434487291296</v>
+      </c>
+      <c r="K21">
+        <v>669.68965247096776</v>
+      </c>
+      <c r="L21">
+        <v>657.28051584990931</v>
+      </c>
+      <c r="M21">
+        <v>645.43181715643721</v>
+      </c>
+      <c r="N21">
+        <v>633.30530611740232</v>
+      </c>
+      <c r="O21">
+        <v>626.51413598796626</v>
+      </c>
+      <c r="P21">
+        <v>616.64345717190372</v>
+      </c>
+      <c r="Q21">
+        <v>610.99687946176687</v>
+      </c>
+      <c r="R21">
+        <v>608.18802792143038</v>
+      </c>
+      <c r="S21">
+        <v>544.7259252270012</v>
+      </c>
+      <c r="T21">
+        <v>544.7259252270012</v>
+      </c>
+      <c r="U21">
+        <v>539.63545353163681</v>
+      </c>
+      <c r="V21">
+        <v>535.92604832334962</v>
+      </c>
+      <c r="W21">
+        <v>532.56824692537282</v>
+      </c>
+      <c r="X21">
+        <v>527.77895691617221</v>
+      </c>
+      <c r="Y21">
+        <v>521.5241570952395</v>
+      </c>
+      <c r="Z21">
+        <v>516.73486708603923</v>
+      </c>
+      <c r="AA21">
+        <v>516.73486708603923</v>
+      </c>
+      <c r="AB21">
+        <v>516.73486708603923</v>
+      </c>
+      <c r="AC21">
+        <v>510.68790952042269</v>
+      </c>
+      <c r="AD21">
+        <v>510.68790952042269</v>
+      </c>
+      <c r="AE21">
+        <v>508.58876801975123</v>
+      </c>
+      <c r="AF21">
+        <v>508.58876801975123</v>
+      </c>
+      <c r="AG21">
+        <v>508.58876801975123</v>
+      </c>
+      <c r="AH21">
+        <v>508.58876801975123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1669.8679999999999</v>
+      </c>
+      <c r="E22">
+        <v>1652.105025681175</v>
+      </c>
+      <c r="F22">
+        <v>1653.018910175959</v>
+      </c>
+      <c r="G22">
+        <v>1713.123221673392</v>
+      </c>
+      <c r="H22">
+        <v>1713.123221673392</v>
+      </c>
+      <c r="I22">
+        <v>1786.125385456967</v>
+      </c>
+      <c r="J22">
+        <v>1771.697626619831</v>
+      </c>
+      <c r="K22">
+        <v>1748.905894045841</v>
+      </c>
+      <c r="L22">
+        <v>1739.358938043581</v>
+      </c>
+      <c r="M22">
+        <v>1738.341747118915</v>
+      </c>
+      <c r="N22">
+        <v>1727.1249668182941</v>
+      </c>
+      <c r="O22">
+        <v>1731.1634821696971</v>
+      </c>
+      <c r="P22">
+        <v>1731.940274690578</v>
+      </c>
+      <c r="Q22">
+        <v>1729.379906480596</v>
+      </c>
+      <c r="R22">
+        <v>1723.588049439111</v>
+      </c>
+      <c r="S22">
+        <v>1717.8541109680409</v>
+      </c>
+      <c r="T22">
+        <v>1712.1775118816811</v>
+      </c>
+      <c r="U22">
+        <v>1706.557678786186</v>
+      </c>
+      <c r="V22">
+        <v>1700.994044021646</v>
+      </c>
+      <c r="W22">
+        <v>1695.486045604752</v>
+      </c>
+      <c r="X22">
+        <v>1697.9226341232791</v>
+      </c>
+      <c r="Y22">
+        <v>1697.9226341232791</v>
+      </c>
+      <c r="Z22">
+        <v>1635.2689833725881</v>
+      </c>
+      <c r="AA22">
+        <v>1607.4912055948089</v>
+      </c>
+      <c r="AB22">
+        <v>1587.623470418835</v>
+      </c>
+      <c r="AC22">
+        <v>1549.2189269627199</v>
+      </c>
+      <c r="AD22">
+        <v>1549.218926962719</v>
+      </c>
+      <c r="AE22">
+        <v>1488.9281927906641</v>
+      </c>
+      <c r="AF22">
+        <v>1504.774482518276</v>
+      </c>
+      <c r="AG22">
+        <v>1455.195936635957</v>
+      </c>
+      <c r="AH22">
+        <v>1454.934769313734</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>37.224106282242893</v>
+      </c>
+      <c r="E23">
+        <v>32.739608520977157</v>
+      </c>
+      <c r="F23">
+        <v>32.084816350557659</v>
+      </c>
+      <c r="G23">
+        <v>31.443120023546481</v>
+      </c>
+      <c r="H23">
+        <v>30.814257623075569</v>
+      </c>
+      <c r="I23">
+        <v>30.197972470614079</v>
+      </c>
+      <c r="J23">
+        <v>29.594013021201761</v>
+      </c>
+      <c r="K23">
+        <v>29.002132760777759</v>
+      </c>
+      <c r="L23">
+        <v>28.42209010556218</v>
+      </c>
+      <c r="M23">
+        <v>27.85364830345096</v>
+      </c>
+      <c r="N23">
+        <v>27.29657533738191</v>
+      </c>
+      <c r="O23">
+        <v>26.75064383063426</v>
+      </c>
+      <c r="P23">
+        <v>26.215630954021591</v>
+      </c>
+      <c r="Q23">
+        <v>25.691318334941151</v>
+      </c>
+      <c r="R23">
+        <v>25.177491968242311</v>
+      </c>
+      <c r="S23">
+        <v>24.673942128877488</v>
+      </c>
+      <c r="T23">
+        <v>24.18046328629994</v>
+      </c>
+      <c r="U23">
+        <v>23.696854020573941</v>
+      </c>
+      <c r="V23">
+        <v>23.222916940162449</v>
+      </c>
+      <c r="W23">
+        <v>22.758458601359219</v>
+      </c>
+      <c r="X23">
+        <v>22.303289429332011</v>
+      </c>
+      <c r="Y23">
+        <v>21.857223640745389</v>
+      </c>
+      <c r="Z23">
+        <v>21.420079167930449</v>
+      </c>
+      <c r="AA23">
+        <v>20.99167758457185</v>
+      </c>
+      <c r="AB23">
+        <v>20.57184403288041</v>
+      </c>
+      <c r="AC23">
+        <v>20.16040715222282</v>
+      </c>
+      <c r="AD23">
+        <v>19.757199009178361</v>
+      </c>
+      <c r="AE23">
+        <v>19.362055028994789</v>
+      </c>
+      <c r="AF23">
+        <v>18.9748139284149</v>
+      </c>
+      <c r="AG23">
+        <v>18.595317649846589</v>
+      </c>
+      <c r="AH23">
+        <v>18.223411296849651</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24">
+        <v>823.19100000000026</v>
+      </c>
+      <c r="E24">
+        <v>803.29028091190719</v>
+      </c>
+      <c r="F24">
+        <v>806.19674375151408</v>
+      </c>
+      <c r="G24">
+        <v>806.56978916078526</v>
+      </c>
+      <c r="H24">
+        <v>807.00040356773673</v>
+      </c>
+      <c r="I24">
+        <v>779.34463013582877</v>
+      </c>
+      <c r="J24">
+        <v>704.64417551456165</v>
+      </c>
+      <c r="K24">
+        <v>704.94238122684851</v>
+      </c>
+      <c r="L24">
+        <v>705.2405106326579</v>
+      </c>
+      <c r="M24">
+        <v>705.62183953393674</v>
+      </c>
+      <c r="N24">
+        <v>706.35162620188544</v>
+      </c>
+      <c r="O24">
+        <v>707.52761075509613</v>
+      </c>
+      <c r="P24">
+        <v>708.34414093044666</v>
+      </c>
+      <c r="Q24">
+        <v>708.34414093044666</v>
+      </c>
+      <c r="R24">
+        <v>730.04909440062772</v>
+      </c>
+      <c r="S24">
+        <v>730.04909440062772</v>
+      </c>
+      <c r="T24">
+        <v>730.04909440062772</v>
+      </c>
+      <c r="U24">
+        <v>730.04909440062772</v>
+      </c>
+      <c r="V24">
+        <v>730.04909440062772</v>
+      </c>
+      <c r="W24">
+        <v>730.04909440062772</v>
+      </c>
+      <c r="X24">
+        <v>730.04909440062772</v>
+      </c>
+      <c r="Y24">
+        <v>730.04909440062772</v>
+      </c>
+      <c r="Z24">
+        <v>730.04909440062772</v>
+      </c>
+      <c r="AA24">
+        <v>730.04909440062772</v>
+      </c>
+      <c r="AB24">
+        <v>730.04909440062772</v>
+      </c>
+      <c r="AC24">
+        <v>730.04909440062772</v>
+      </c>
+      <c r="AD24">
+        <v>730.04909440062772</v>
+      </c>
+      <c r="AE24">
+        <v>730.04909440062772</v>
+      </c>
+      <c r="AF24">
+        <v>730.04909440062772</v>
+      </c>
+      <c r="AG24">
+        <v>730.04909440062772</v>
+      </c>
+      <c r="AH24">
+        <v>730.04909440062772</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>317.30443044815951</v>
+      </c>
+      <c r="E25">
+        <v>317.30443044815951</v>
+      </c>
+      <c r="F25">
+        <v>317.30443044815951</v>
+      </c>
+      <c r="G25">
+        <v>317.30443044815951</v>
+      </c>
+      <c r="H25">
+        <v>317.30443044815951</v>
+      </c>
+      <c r="I25">
+        <v>317.30443044815951</v>
+      </c>
+      <c r="J25">
+        <v>317.30443044815951</v>
+      </c>
+      <c r="K25">
+        <v>317.30443044815951</v>
+      </c>
+      <c r="L25">
+        <v>317.30443044815951</v>
+      </c>
+      <c r="M25">
+        <v>317.30443044815951</v>
+      </c>
+      <c r="N25">
+        <v>317.30443044815951</v>
+      </c>
+      <c r="O25">
+        <v>317.30443044815951</v>
+      </c>
+      <c r="P25">
+        <v>317.30443044815951</v>
+      </c>
+      <c r="Q25">
+        <v>317.30443044815951</v>
+      </c>
+      <c r="R25">
+        <v>317.30443044815951</v>
+      </c>
+      <c r="S25">
+        <v>317.30443044815951</v>
+      </c>
+      <c r="T25">
+        <v>317.30443044815939</v>
+      </c>
+      <c r="U25">
+        <v>317.30443044815951</v>
+      </c>
+      <c r="V25">
+        <v>317.30443044815939</v>
+      </c>
+      <c r="W25">
+        <v>317.30443044815922</v>
+      </c>
+      <c r="X25">
+        <v>317.30443044815951</v>
+      </c>
+      <c r="Y25">
+        <v>317.30443044815951</v>
+      </c>
+      <c r="Z25">
+        <v>317.30443044815951</v>
+      </c>
+      <c r="AA25">
+        <v>317.30443044815951</v>
+      </c>
+      <c r="AB25">
+        <v>317.30443044815951</v>
+      </c>
+      <c r="AC25">
+        <v>317.30443044815928</v>
+      </c>
+      <c r="AD25">
+        <v>317.30443044815951</v>
+      </c>
+      <c r="AE25">
+        <v>317.30443044815939</v>
+      </c>
+      <c r="AF25">
+        <v>317.30443044815939</v>
+      </c>
+      <c r="AG25">
+        <v>317.30443044815939</v>
+      </c>
+      <c r="AH25">
+        <v>317.30443044815951</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>341.41600068258981</v>
+      </c>
+      <c r="E26">
+        <v>395.31841237322823</v>
+      </c>
+      <c r="F26">
+        <v>418.54411881547009</v>
+      </c>
+      <c r="G26">
+        <v>420.19935770693161</v>
+      </c>
+      <c r="H26">
+        <v>466.49317190241362</v>
+      </c>
+      <c r="I26">
+        <v>596.71416075079867</v>
+      </c>
+      <c r="J26">
+        <v>630.37764875390292</v>
+      </c>
+      <c r="K26">
+        <v>631.75315092250366</v>
+      </c>
+      <c r="L26">
+        <v>639.51274137315716</v>
+      </c>
+      <c r="M26">
+        <v>651.15736190080941</v>
+      </c>
+      <c r="N26">
+        <v>684.57145643881063</v>
+      </c>
+      <c r="O26">
+        <v>704.19574439781957</v>
+      </c>
+      <c r="P26">
+        <v>704.19574439781979</v>
+      </c>
+      <c r="Q26">
+        <v>705.10936749663722</v>
+      </c>
+      <c r="R26">
+        <v>705.10936749663745</v>
+      </c>
+      <c r="S26">
+        <v>758.17365981678927</v>
+      </c>
+      <c r="T26">
+        <v>784.25494450143208</v>
+      </c>
+      <c r="U26">
+        <v>797.81725267288334</v>
+      </c>
+      <c r="V26">
+        <v>811.24082409478092</v>
+      </c>
+      <c r="W26">
+        <v>826.77008102067884</v>
+      </c>
+      <c r="X26">
+        <v>829.67665436431002</v>
+      </c>
+      <c r="Y26">
+        <v>848.07040111689003</v>
+      </c>
+      <c r="Z26">
+        <v>930.56941045574729</v>
+      </c>
+      <c r="AA26">
+        <v>973.33738464826627</v>
+      </c>
+      <c r="AB26">
+        <v>1015.212808024638</v>
+      </c>
+      <c r="AC26">
+        <v>1090.5592945787321</v>
+      </c>
+      <c r="AD26">
+        <v>1117.0718685078909</v>
+      </c>
+      <c r="AE26">
+        <v>1199.937064023095</v>
+      </c>
+      <c r="AF26">
+        <v>1214.891191927758</v>
+      </c>
+      <c r="AG26">
+        <v>1298.2486704044341</v>
+      </c>
+      <c r="AH26">
+        <v>1322.240360904334</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>121.0830001503726</v>
+      </c>
+      <c r="E27">
+        <v>197.48854384051509</v>
+      </c>
+      <c r="F27">
+        <v>197.48854384051509</v>
+      </c>
+      <c r="G27">
+        <v>269.69649264213791</v>
+      </c>
+      <c r="H27">
+        <v>319.66177173218858</v>
+      </c>
+      <c r="I27">
+        <v>382.21718458424931</v>
+      </c>
+      <c r="J27">
+        <v>493.95813483298468</v>
+      </c>
+      <c r="K27">
+        <v>583.72307252267922</v>
+      </c>
+      <c r="L27">
+        <v>635.95475608818799</v>
+      </c>
+      <c r="M27">
+        <v>679.41823971153303</v>
+      </c>
+      <c r="N27">
+        <v>707.5994993460406</v>
+      </c>
+      <c r="O27">
+        <v>739.33633753208301</v>
+      </c>
+      <c r="P27">
+        <v>784.42123780594886</v>
+      </c>
+      <c r="Q27">
+        <v>831.89047904242534</v>
+      </c>
+      <c r="R27">
+        <v>858.74542147030991</v>
+      </c>
+      <c r="S27">
+        <v>909.66005491361432</v>
+      </c>
+      <c r="T27">
+        <v>931.79852581990235</v>
+      </c>
+      <c r="U27">
+        <v>976.85075222406476</v>
+      </c>
+      <c r="V27">
+        <v>1016.1308068109259</v>
+      </c>
+      <c r="W27">
+        <v>1054.556100847856</v>
+      </c>
+      <c r="X27">
+        <v>1103.4181993814709</v>
+      </c>
+      <c r="Y27">
+        <v>1150.6239349492789</v>
+      </c>
+      <c r="Z27">
+        <v>1192.270313261012</v>
+      </c>
+      <c r="AA27">
+        <v>1243.9164323492921</v>
+      </c>
+      <c r="AB27">
+        <v>1295.4418656414789</v>
+      </c>
+      <c r="AC27">
+        <v>1337.32194651839</v>
+      </c>
+      <c r="AD27">
+        <v>1395.0791292248359</v>
+      </c>
+      <c r="AE27">
+        <v>1455.165084798766</v>
+      </c>
+      <c r="AF27">
+        <v>1514.5685316727249</v>
+      </c>
+      <c r="AG27">
+        <v>1573.940279025227</v>
+      </c>
+      <c r="AH27">
+        <v>1646.501062296519</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="2">
+        <v>65.685000000000031</v>
+      </c>
+      <c r="E28" s="2">
+        <v>64.818168999999997</v>
+      </c>
+      <c r="F28" s="2">
+        <v>60.331820999999998</v>
+      </c>
+      <c r="G28" s="2">
+        <v>58.500572000000062</v>
+      </c>
+      <c r="H28" s="2">
+        <v>60.65810400000003</v>
+      </c>
+      <c r="I28" s="2">
+        <v>57.30718999999997</v>
+      </c>
+      <c r="J28" s="2">
+        <v>58.658484999999999</v>
+      </c>
+      <c r="K28" s="2">
+        <v>62.426032999999997</v>
+      </c>
+      <c r="L28" s="2">
+        <v>64.325660999999997</v>
+      </c>
+      <c r="M28" s="2">
+        <v>63.457684</v>
+      </c>
+      <c r="N28" s="2">
+        <v>66.023223999999971</v>
+      </c>
+      <c r="O28" s="2">
+        <v>63.650710999999937</v>
+      </c>
+      <c r="P28" s="2">
+        <v>65.915581000000003</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>65.916564999999949</v>
+      </c>
+      <c r="R28" s="2">
+        <v>68.493628999999885</v>
+      </c>
+      <c r="S28" s="2">
+        <v>67.937416000000027</v>
+      </c>
+      <c r="T28" s="2">
+        <v>66.548964999999995</v>
+      </c>
+      <c r="U28" s="2">
+        <v>66.210906999999963</v>
+      </c>
+      <c r="V28" s="2">
+        <v>65.833572000000018</v>
+      </c>
+      <c r="W28" s="2">
+        <v>66.119408000000107</v>
+      </c>
+      <c r="X28" s="2">
+        <v>65.914520000000024</v>
+      </c>
+      <c r="Y28" s="2">
+        <v>66.391700999999969</v>
+      </c>
+      <c r="Z28" s="2">
+        <v>65.98206299999994</v>
+      </c>
+      <c r="AA28" s="2">
+        <v>65.571129000000028</v>
+      </c>
+      <c r="AB28" s="2">
+        <v>65.149695999999977</v>
+      </c>
+      <c r="AC28" s="2">
+        <v>64.870002999999997</v>
+      </c>
+      <c r="AD28" s="2">
+        <v>63.585754000000001</v>
+      </c>
+      <c r="AE28" s="2">
+        <v>62.953705000000063</v>
+      </c>
+      <c r="AF28" s="2">
+        <v>62.182315999999993</v>
+      </c>
+      <c r="AG28" s="2">
+        <v>61.771969000000063</v>
+      </c>
+      <c r="AH28" s="2">
+        <v>61.349750999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>94.80875352219968</v>
+      </c>
+      <c r="E29">
+        <v>104.56765343751211</v>
+      </c>
+      <c r="F29">
+        <v>81.689439074034027</v>
+      </c>
+      <c r="G29">
+        <v>82.270573467092547</v>
+      </c>
+      <c r="H29">
+        <v>84.546678392249177</v>
+      </c>
+      <c r="I29">
+        <v>86.517488895816442</v>
+      </c>
+      <c r="J29">
+        <v>93.091549559360104</v>
+      </c>
+      <c r="K29">
+        <v>95.643027692070774</v>
+      </c>
+      <c r="L29">
+        <v>97.015126972648076</v>
+      </c>
+      <c r="M29">
+        <v>98.261726410634125</v>
+      </c>
+      <c r="N29">
+        <v>99.514242414406624</v>
+      </c>
+      <c r="O29">
+        <v>99.486661962078216</v>
+      </c>
+      <c r="P29">
+        <v>99.274536904689342</v>
+      </c>
+      <c r="Q29">
+        <v>103.91678079028161</v>
+      </c>
+      <c r="R29">
+        <v>104.9954614036033</v>
+      </c>
+      <c r="S29">
+        <v>106.4981793605962</v>
+      </c>
+      <c r="T29">
+        <v>108.2477946913245</v>
+      </c>
+      <c r="U29">
+        <v>110.25979822258741</v>
+      </c>
+      <c r="V29">
+        <v>111.8385480879881</v>
+      </c>
+      <c r="W29">
+        <v>113.2838097660909</v>
+      </c>
+      <c r="X29">
+        <v>119.9071473061211</v>
+      </c>
+      <c r="Y29">
+        <v>120.5423607749503</v>
+      </c>
+      <c r="Z29">
+        <v>121.12649262453979</v>
+      </c>
+      <c r="AA29">
+        <v>121.6472467022141</v>
+      </c>
+      <c r="AB29">
+        <v>125.098424902829</v>
+      </c>
+      <c r="AC29">
+        <v>126.0089475905161</v>
+      </c>
+      <c r="AD29">
+        <v>126.57921939590901</v>
+      </c>
+      <c r="AE29">
+        <v>126.9886138146083</v>
+      </c>
+      <c r="AF29">
+        <v>127.46756450680761</v>
+      </c>
+      <c r="AG29">
+        <v>127.5387073923026</v>
+      </c>
+      <c r="AH29">
+        <v>127.0149085813259</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30">
+        <v>4322.4492910855661</v>
+      </c>
+      <c r="E30">
+        <v>4582.2348591472582</v>
+      </c>
+      <c r="F30">
+        <v>4632.3124336033989</v>
+      </c>
+      <c r="G30">
+        <v>4669.6478360847086</v>
+      </c>
+      <c r="H30">
+        <v>4715.0885053131478</v>
+      </c>
+      <c r="I30">
+        <v>4755.4158499501282</v>
+      </c>
+      <c r="J30">
+        <v>4798.0704086229143</v>
+      </c>
+      <c r="K30">
+        <v>4843.3897750898477</v>
+      </c>
+      <c r="L30">
+        <v>4884.414770513863</v>
+      </c>
+      <c r="M30">
+        <v>4926.8484945838763</v>
+      </c>
+      <c r="N30">
+        <v>4969.0913271223817</v>
+      </c>
+      <c r="O30">
+        <v>5015.9297580835337</v>
+      </c>
+      <c r="P30">
+        <v>5054.2550343035682</v>
+      </c>
+      <c r="Q30">
+        <v>5098.5498679852544</v>
+      </c>
+      <c r="R30">
+        <v>5141.6509735481213</v>
+      </c>
+      <c r="S30">
+        <v>5176.8768132637069</v>
+      </c>
+      <c r="T30">
+        <v>5219.2876552564276</v>
+      </c>
+      <c r="U30">
+        <v>5268.3822213067187</v>
+      </c>
+      <c r="V30">
+        <v>5312.5402851276403</v>
+      </c>
+      <c r="W30">
+        <v>5358.8956756148946</v>
+      </c>
+      <c r="X30">
+        <v>5414.2749263694732</v>
+      </c>
+      <c r="Y30">
+        <v>5474.2859375491698</v>
+      </c>
+      <c r="Z30">
+        <v>5530.7257338166446</v>
+      </c>
+      <c r="AA30">
+        <v>5597.04346781398</v>
+      </c>
+      <c r="AB30">
+        <v>5673.1865009554886</v>
+      </c>
+      <c r="AC30">
+        <v>5746.1809601717914</v>
+      </c>
+      <c r="AD30">
+        <v>5829.3335314697424</v>
+      </c>
+      <c r="AE30">
+        <v>5909.2770083246651</v>
+      </c>
+      <c r="AF30">
+        <v>5998.8011934225196</v>
+      </c>
+      <c r="AG30">
+        <v>6091.2331729763064</v>
+      </c>
+      <c r="AH30">
+        <v>6186.2065562613006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2">
+        <v>851.86899999999912</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1014.602734933782</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1065.6536101471891</v>
+      </c>
+      <c r="G31" s="2">
+        <v>970.54027896266325</v>
+      </c>
+      <c r="H31" s="2">
+        <v>910.75354308446663</v>
+      </c>
+      <c r="I31" s="2">
+        <v>877.75817242874507</v>
+      </c>
+      <c r="J31" s="2">
+        <v>638.02522375045646</v>
+      </c>
+      <c r="K31" s="2">
+        <v>557.6273304700868</v>
+      </c>
+      <c r="L31" s="2">
+        <v>494.22002304924621</v>
+      </c>
+      <c r="M31" s="2">
+        <v>455.9236860889298</v>
+      </c>
+      <c r="N31" s="2">
+        <v>284.69391578547419</v>
+      </c>
+      <c r="O31" s="2">
+        <v>240.8633945700077</v>
+      </c>
+      <c r="P31" s="2">
+        <v>186.28214615092679</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>155.28453677343759</v>
+      </c>
+      <c r="R31" s="2">
+        <v>108.130231384572</v>
+      </c>
+      <c r="S31" s="2">
+        <v>49.52307540408075</v>
+      </c>
+      <c r="T31" s="2">
+        <v>39.129407729641557</v>
+      </c>
+      <c r="U31" s="2">
+        <v>22.84127240412624</v>
+      </c>
+      <c r="V31" s="2">
+        <v>11.42063620206312</v>
+      </c>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="2"/>
+      <c r="AG31" s="2"/>
+      <c r="AH31" s="2"/>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1669.8679999999999</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1679.2509825903289</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1702.9478084267621</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1766.335916558769</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1769.2227704702809</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1870.0797569278841</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1974.6001794198869</v>
+      </c>
+      <c r="K32" s="2">
+        <v>1954.8868515300719</v>
+      </c>
+      <c r="L32" s="2">
+        <v>1946.883333509347</v>
+      </c>
+      <c r="M32" s="2">
+        <v>1946.8803995112371</v>
+      </c>
+      <c r="N32" s="2">
+        <v>1927.8047864924799</v>
+      </c>
+      <c r="O32" s="2">
+        <v>1933.3229574079619</v>
+      </c>
+      <c r="P32" s="2">
+        <v>1938.884736987784</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>1907.423824753017</v>
+      </c>
+      <c r="R32" s="2">
+        <v>1902.1363353275231</v>
+      </c>
+      <c r="S32" s="2">
+        <v>1896.220301549452</v>
+      </c>
+      <c r="T32" s="2">
+        <v>1848.15630533473</v>
+      </c>
+      <c r="U32" s="2">
+        <v>1814.549560028928</v>
+      </c>
+      <c r="V32" s="2">
+        <v>1687.58675932397</v>
+      </c>
+      <c r="W32" s="2">
+        <v>1605.5719053568371</v>
+      </c>
+      <c r="X32" s="2">
+        <v>1511.487967910831</v>
+      </c>
+      <c r="Y32" s="2">
+        <v>1302.751768053042</v>
+      </c>
+      <c r="Z32" s="2">
+        <v>1181.3216774906989</v>
+      </c>
+      <c r="AA32" s="2">
+        <v>1007.8148664337371</v>
+      </c>
+      <c r="AB32" s="2">
+        <v>845.01066531434731</v>
+      </c>
+      <c r="AC32" s="2">
+        <v>658.58419646561038</v>
+      </c>
+      <c r="AD32" s="2">
+        <v>493.06896792604152</v>
+      </c>
+      <c r="AE32" s="2">
+        <v>431.94500116787498</v>
+      </c>
+      <c r="AF32" s="2">
+        <v>435.30953970244462</v>
+      </c>
+      <c r="AG32" s="2">
+        <v>386.87233715684403</v>
+      </c>
+      <c r="AH32" s="2">
+        <v>342.08999135957538</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2">
+        <v>17.49619035499239</v>
+      </c>
+      <c r="O33" s="2">
+        <v>34.992380709984772</v>
+      </c>
+      <c r="P33" s="2">
+        <v>52.488571064977123</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>69.984761419969473</v>
+      </c>
+      <c r="R33" s="2">
+        <v>87.480951774961838</v>
+      </c>
+      <c r="S33" s="2">
+        <v>122.4733324849466</v>
+      </c>
+      <c r="T33" s="2">
+        <v>157.46571319493151</v>
+      </c>
+      <c r="U33" s="2">
+        <v>192.4580939049163</v>
+      </c>
+      <c r="V33" s="2">
+        <v>227.450474614901</v>
+      </c>
+      <c r="W33" s="2">
+        <v>262.44285532488578</v>
+      </c>
+      <c r="X33" s="2">
+        <v>297.43523603487029</v>
+      </c>
+      <c r="Y33" s="2">
+        <v>411.24380722248759</v>
+      </c>
+      <c r="Z33" s="2">
+        <v>412.66997886404278</v>
+      </c>
+      <c r="AA33" s="2">
+        <v>446.09431699125503</v>
+      </c>
+      <c r="AB33" s="2">
+        <v>497.16362399343973</v>
+      </c>
+      <c r="AC33" s="2">
+        <v>511.82706491589079</v>
+      </c>
+      <c r="AD33" s="2">
+        <v>638.55454457013559</v>
+      </c>
+      <c r="AE33" s="2">
+        <v>594.45810631682355</v>
+      </c>
+      <c r="AF33" s="2">
+        <v>525.62099110185443</v>
+      </c>
+      <c r="AG33" s="2">
+        <v>484.52281768667439</v>
+      </c>
+      <c r="AH33" s="2">
+        <v>437.49831493822302</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="2">
+        <v>37.224106282242907</v>
+      </c>
+      <c r="E34" s="2">
+        <v>33.21990076781244</v>
+      </c>
+      <c r="F34" s="2">
+        <v>32.050437537099967</v>
+      </c>
+      <c r="G34" s="2">
+        <v>31.409428786357971</v>
+      </c>
+      <c r="H34" s="2">
+        <v>30.781240210630781</v>
+      </c>
+      <c r="I34" s="2">
+        <v>30.165615406418151</v>
+      </c>
+      <c r="J34" s="2">
+        <v>29.562303098289831</v>
+      </c>
+      <c r="K34" s="2">
+        <v>28.97105703632403</v>
+      </c>
+      <c r="L34" s="2">
+        <v>28.391635895597538</v>
+      </c>
+      <c r="M34" s="2">
+        <v>27.823803177685619</v>
+      </c>
+      <c r="N34" s="2">
+        <v>38.916841797199261</v>
+      </c>
+      <c r="O34" s="2">
+        <v>38.916841797199261</v>
+      </c>
+      <c r="P34" s="2">
+        <v>38.916841797199282</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>38.916841797199261</v>
+      </c>
+      <c r="R34" s="2">
+        <v>38.916841797199261</v>
+      </c>
+      <c r="S34" s="2">
+        <v>38.916841797199247</v>
+      </c>
+      <c r="T34" s="2">
+        <v>15.37688507169017</v>
+      </c>
+      <c r="U34" s="2">
+        <v>10.512721330676611</v>
+      </c>
+      <c r="V34" s="2">
+        <v>8.0241538842731774</v>
+      </c>
+      <c r="W34" s="2">
+        <v>6.7245142966927656</v>
+      </c>
+      <c r="X34" s="2">
+        <v>6.0204457558114326</v>
+      </c>
+      <c r="Y34" s="2">
+        <v>5.3185923721030131</v>
+      </c>
+      <c r="Z34" s="2">
+        <v>5.2122205246609301</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>5.1079761141677311</v>
+      </c>
+      <c r="AB34" s="2">
+        <v>5.0058165918843667</v>
+      </c>
+      <c r="AC34" s="2">
+        <v>4.9057002600466859</v>
+      </c>
+      <c r="AD34" s="2">
+        <v>4.8075862548457584</v>
+      </c>
+      <c r="AE34" s="2">
+        <v>4.7114345297488276</v>
+      </c>
+      <c r="AF34" s="2">
+        <v>4.6172058391538524</v>
+      </c>
+      <c r="AG34" s="2">
+        <v>4.5248617223707752</v>
+      </c>
+      <c r="AH34" s="2">
+        <v>4.4343644879233466</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="2">
+        <v>823.19100164638212</v>
+      </c>
+      <c r="E35" s="2">
+        <v>803.29028091190719</v>
+      </c>
+      <c r="F35" s="2">
+        <v>806.19674375151408</v>
+      </c>
+      <c r="G35" s="2">
+        <v>806.56978916078526</v>
+      </c>
+      <c r="H35" s="2">
+        <v>807.00040356773673</v>
+      </c>
+      <c r="I35" s="2">
+        <v>779.34463013582899</v>
+      </c>
+      <c r="J35" s="2">
+        <v>727.3638363956519</v>
+      </c>
+      <c r="K35" s="2">
+        <v>740.02118746052031</v>
+      </c>
+      <c r="L35" s="2">
+        <v>762.17892977595193</v>
+      </c>
+      <c r="M35" s="2">
+        <v>771.03018749402031</v>
+      </c>
+      <c r="N35" s="2">
+        <v>805.82441901452523</v>
+      </c>
+      <c r="O35" s="2">
+        <v>807.00040356773673</v>
+      </c>
+      <c r="P35" s="2">
+        <v>810.73094244542438</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>810.73094244542438</v>
+      </c>
+      <c r="R35" s="2">
+        <v>832.43589591560499</v>
+      </c>
+      <c r="S35" s="2">
+        <v>840.91439336489418</v>
+      </c>
+      <c r="T35" s="2">
+        <v>840.91439336489418</v>
+      </c>
+      <c r="U35" s="2">
+        <v>840.91439336489418</v>
+      </c>
+      <c r="V35" s="2">
+        <v>840.91439336489418</v>
+      </c>
+      <c r="W35" s="2">
+        <v>840.91439336489418</v>
+      </c>
+      <c r="X35" s="2">
+        <v>840.91439336489418</v>
+      </c>
+      <c r="Y35" s="2">
+        <v>840.91439336489418</v>
+      </c>
+      <c r="Z35" s="2">
+        <v>840.91439336489418</v>
+      </c>
+      <c r="AA35" s="2">
+        <v>840.91439336489418</v>
+      </c>
+      <c r="AB35" s="2">
+        <v>840.91439336489418</v>
+      </c>
+      <c r="AC35" s="2">
+        <v>840.91439336489418</v>
+      </c>
+      <c r="AD35" s="2">
+        <v>840.91439336489418</v>
+      </c>
+      <c r="AE35" s="2">
+        <v>840.91439336489418</v>
+      </c>
+      <c r="AF35" s="2">
+        <v>840.91439336489418</v>
+      </c>
+      <c r="AG35" s="2">
+        <v>840.91439336489418</v>
+      </c>
+      <c r="AH35" s="2">
+        <v>840.91439336489418</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="2">
+        <v>317.30443044815951</v>
+      </c>
+      <c r="E36" s="2">
+        <v>317.30443044815951</v>
+      </c>
+      <c r="F36" s="2">
+        <v>317.30443044815951</v>
+      </c>
+      <c r="G36" s="2">
+        <v>317.30443044815951</v>
+      </c>
+      <c r="H36" s="2">
+        <v>317.30443044815951</v>
+      </c>
+      <c r="I36" s="2">
+        <v>317.30443044815951</v>
+      </c>
+      <c r="J36" s="2">
+        <v>317.30443044815911</v>
+      </c>
+      <c r="K36" s="2">
+        <v>317.30443044815951</v>
+      </c>
+      <c r="L36" s="2">
+        <v>317.30443044815951</v>
+      </c>
+      <c r="M36" s="2">
+        <v>317.30443044815951</v>
+      </c>
+      <c r="N36" s="2">
+        <v>320.97919789794048</v>
+      </c>
+      <c r="O36" s="2">
+        <v>327.17745877854918</v>
+      </c>
+      <c r="P36" s="2">
+        <v>329.71874573959838</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>332.28544557025839</v>
+      </c>
+      <c r="R36" s="2">
+        <v>334.87781239922509</v>
+      </c>
+      <c r="S36" s="2">
+        <v>337.49610289648109</v>
+      </c>
+      <c r="T36" s="2">
+        <v>337.4961028964812</v>
+      </c>
+      <c r="U36" s="2">
+        <v>337.49610289648132</v>
+      </c>
+      <c r="V36" s="2">
+        <v>337.49610289648132</v>
+      </c>
+      <c r="W36" s="2">
+        <v>337.49610289648132</v>
+      </c>
+      <c r="X36" s="2">
+        <v>337.49610289648132</v>
+      </c>
+      <c r="Y36" s="2">
+        <v>337.49610289648132</v>
+      </c>
+      <c r="Z36" s="2">
+        <v>337.4961028964812</v>
+      </c>
+      <c r="AA36" s="2">
+        <v>337.49610289648132</v>
+      </c>
+      <c r="AB36" s="2">
+        <v>337.4961028964812</v>
+      </c>
+      <c r="AC36" s="2">
+        <v>337.49610289648109</v>
+      </c>
+      <c r="AD36" s="2">
+        <v>337.4961028964812</v>
+      </c>
+      <c r="AE36" s="2">
+        <v>337.49610289648132</v>
+      </c>
+      <c r="AF36" s="2">
+        <v>337.4961028964812</v>
+      </c>
+      <c r="AG36" s="2">
+        <v>337.49610289648137</v>
+      </c>
+      <c r="AH36" s="2">
+        <v>337.49610289648132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="2">
+        <v>341.41600068258981</v>
+      </c>
+      <c r="E37" s="2">
+        <v>470.89679332392069</v>
+      </c>
+      <c r="F37" s="2">
+        <v>494.12249976616192</v>
+      </c>
+      <c r="G37" s="2">
+        <v>565.13414761744627</v>
+      </c>
+      <c r="H37" s="2">
+        <v>592.38478818835881</v>
+      </c>
+      <c r="I37" s="2">
+        <v>612.3614525596837</v>
+      </c>
+      <c r="J37" s="2">
+        <v>752.33552279591242</v>
+      </c>
+      <c r="K37" s="2">
+        <v>821.74692025424315</v>
+      </c>
+      <c r="L37" s="2">
+        <v>902.47402124453208</v>
+      </c>
+      <c r="M37" s="2">
+        <v>980.71806775238792</v>
+      </c>
+      <c r="N37" s="2">
+        <v>1116.451896561488</v>
+      </c>
+      <c r="O37" s="2">
+        <v>1246.9384787025051</v>
+      </c>
+      <c r="P37" s="2">
+        <v>1319.513358856794</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>1393.7418324853779</v>
+      </c>
+      <c r="R37" s="2">
+        <v>1472.1604626914809</v>
+      </c>
+      <c r="S37" s="2">
+        <v>1555.0067014711799</v>
+      </c>
+      <c r="T37" s="2">
+        <v>1680.0538474485891</v>
+      </c>
+      <c r="U37" s="2">
+        <v>1761.459860468015</v>
+      </c>
+      <c r="V37" s="2">
+        <v>1847.343204203514</v>
+      </c>
+      <c r="W37" s="2">
+        <v>1954.42411868827</v>
+      </c>
+      <c r="X37" s="2">
+        <v>2068.4652926145382</v>
+      </c>
+      <c r="Y37" s="2">
+        <v>2189.9191428460108</v>
+      </c>
+      <c r="Z37" s="2">
+        <v>2319.2674933425319</v>
+      </c>
+      <c r="AA37" s="2">
+        <v>2457.023486621325</v>
+      </c>
+      <c r="AB37" s="2">
+        <v>2603.733619463243</v>
+      </c>
+      <c r="AC37" s="2">
+        <v>2759.97991093988</v>
+      </c>
+      <c r="AD37" s="2">
+        <v>2796.8844493034012</v>
+      </c>
+      <c r="AE37" s="2">
+        <v>2876.9795777091722</v>
+      </c>
+      <c r="AF37" s="2">
+        <v>2920.0322445895272</v>
+      </c>
+      <c r="AG37" s="2">
+        <v>2985.0651908221012</v>
+      </c>
+      <c r="AH37" s="2">
+        <v>3015.664567625473</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="2">
+        <v>139.11682024539999</v>
+      </c>
+      <c r="E38" s="2">
+        <v>139.77539250493149</v>
+      </c>
+      <c r="F38" s="2">
+        <v>139.77539250493149</v>
+      </c>
+      <c r="G38" s="2">
+        <v>211.0695457768301</v>
+      </c>
+      <c r="H38" s="2">
+        <v>335.15919539096637</v>
+      </c>
+      <c r="I38" s="2">
+        <v>385.15044137331398</v>
+      </c>
+      <c r="J38" s="2">
+        <v>542.91484831540492</v>
+      </c>
+      <c r="K38" s="2">
+        <v>664.97207428470585</v>
+      </c>
+      <c r="L38" s="2">
+        <v>750.09990033149745</v>
+      </c>
+      <c r="M38" s="2">
+        <v>828.59047353171013</v>
+      </c>
+      <c r="N38" s="2">
+        <v>878.81379335859856</v>
+      </c>
+      <c r="O38" s="2">
+        <v>916.82380275803484</v>
+      </c>
+      <c r="P38" s="2">
+        <v>1010.829752643405</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>1087.181943758538</v>
+      </c>
+      <c r="R38" s="2">
+        <v>1144.4791802468351</v>
+      </c>
+      <c r="S38" s="2">
+        <v>1227.0063026173671</v>
+      </c>
+      <c r="T38" s="2">
+        <v>1268.4559383543381</v>
+      </c>
+      <c r="U38" s="2">
+        <v>1335.2952065042391</v>
+      </c>
+      <c r="V38" s="2">
+        <v>1477.8067376433989</v>
+      </c>
+      <c r="W38" s="2">
+        <v>1548.7399441894879</v>
+      </c>
+      <c r="X38" s="2">
+        <v>1616.7288195141441</v>
+      </c>
+      <c r="Y38" s="2">
+        <v>1708.333415658504</v>
+      </c>
+      <c r="Z38" s="2">
+        <v>1809.5328297434321</v>
+      </c>
+      <c r="AA38" s="2">
+        <v>1928.076043926736</v>
+      </c>
+      <c r="AB38" s="2">
+        <v>1999.419524285837</v>
+      </c>
+      <c r="AC38" s="2">
+        <v>2115.7738092445052</v>
+      </c>
+      <c r="AD38" s="2">
+        <v>2226.5677776979878</v>
+      </c>
+      <c r="AE38" s="2">
+        <v>2348.587116711848</v>
+      </c>
+      <c r="AF38" s="2">
+        <v>2465.22846198047</v>
+      </c>
+      <c r="AG38" s="2">
+        <v>2575.5395096436182</v>
+      </c>
+      <c r="AH38" s="2">
+        <v>2711.9317819592261</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="2">
+        <v>65.685000000000002</v>
+      </c>
+      <c r="E39" s="2">
+        <v>64.818168999999969</v>
+      </c>
+      <c r="F39" s="2">
+        <v>60.331821000000133</v>
+      </c>
+      <c r="G39" s="2">
+        <v>58.500572000000027</v>
+      </c>
+      <c r="H39" s="2">
+        <v>60.658104000000023</v>
+      </c>
+      <c r="I39" s="2">
+        <v>57.307190000000027</v>
+      </c>
+      <c r="J39" s="2">
+        <v>58.65848499999997</v>
+      </c>
+      <c r="K39" s="2">
+        <v>62.426032999999997</v>
+      </c>
+      <c r="L39" s="2">
+        <v>64.325660999999982</v>
+      </c>
+      <c r="M39" s="2">
+        <v>63.457683999999972</v>
+      </c>
+      <c r="N39" s="2">
+        <v>66.023223999999971</v>
+      </c>
+      <c r="O39" s="2">
+        <v>63.650710999999973</v>
+      </c>
+      <c r="P39" s="2">
+        <v>65.915581000000003</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>65.916565000000034</v>
+      </c>
+      <c r="R39" s="2">
+        <v>68.493629000000055</v>
+      </c>
+      <c r="S39" s="2">
+        <v>67.937416000000027</v>
+      </c>
+      <c r="T39" s="2">
+        <v>66.548965000000024</v>
+      </c>
+      <c r="U39" s="2">
+        <v>66.210907000000134</v>
+      </c>
+      <c r="V39" s="2">
+        <v>65.833571999999918</v>
+      </c>
+      <c r="W39" s="2">
+        <v>66.119407999999964</v>
+      </c>
+      <c r="X39" s="2">
+        <v>65.914520000000138</v>
+      </c>
+      <c r="Y39" s="2">
+        <v>66.391700999999998</v>
+      </c>
+      <c r="Z39" s="2">
+        <v>65.982063000000025</v>
+      </c>
+      <c r="AA39" s="2">
+        <v>65.571129000000056</v>
+      </c>
+      <c r="AB39" s="2">
+        <v>65.149695999999992</v>
+      </c>
+      <c r="AC39" s="2">
+        <v>64.870002999999997</v>
+      </c>
+      <c r="AD39" s="2">
+        <v>63.585753999999923</v>
+      </c>
+      <c r="AE39" s="2">
+        <v>62.953704999999893</v>
+      </c>
+      <c r="AF39" s="2">
+        <v>62.182315999999972</v>
+      </c>
+      <c r="AG39" s="2">
+        <v>61.771968999999999</v>
+      </c>
+      <c r="AH39" s="2">
+        <v>61.349750999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="2">
+        <v>108.58244081811139</v>
+      </c>
+      <c r="E40" s="2">
+        <v>94.456440866005408</v>
+      </c>
+      <c r="F40" s="2">
+        <v>88.787576934116331</v>
+      </c>
+      <c r="G40" s="2">
+        <v>89.713948389504665</v>
+      </c>
+      <c r="H40" s="2">
+        <v>100.94301158988451</v>
+      </c>
+      <c r="I40" s="2">
+        <v>117.0959597769844</v>
+      </c>
+      <c r="J40" s="2">
+        <v>118.77218031835849</v>
+      </c>
+      <c r="K40" s="2">
+        <v>120.484205160389</v>
+      </c>
+      <c r="L40" s="2">
+        <v>122.3504009085117</v>
+      </c>
+      <c r="M40" s="2">
+        <v>124.1415753057416</v>
+      </c>
+      <c r="N40" s="2">
+        <v>126.0672117023239</v>
+      </c>
+      <c r="O40" s="2">
+        <v>126.7398735368439</v>
+      </c>
+      <c r="P40" s="2">
+        <v>130.83857711524189</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>133.1599617287151</v>
+      </c>
+      <c r="R40" s="2">
+        <v>135.44296052919839</v>
+      </c>
+      <c r="S40" s="2">
+        <v>138.38374513052511</v>
+      </c>
+      <c r="T40" s="2">
+        <v>168.03705994612241</v>
+      </c>
+      <c r="U40" s="2">
+        <v>173.90240078160679</v>
+      </c>
+      <c r="V40" s="2">
+        <v>175.0754475820012</v>
+      </c>
+      <c r="W40" s="2">
+        <v>175.29669308569481</v>
+      </c>
+      <c r="X40" s="2">
+        <v>175.21382406934109</v>
+      </c>
+      <c r="Y40" s="2">
+        <v>177.62146542536681</v>
+      </c>
+      <c r="Z40" s="2">
+        <v>181.9434032928402</v>
+      </c>
+      <c r="AA40" s="2">
+        <v>189.2189228026771</v>
+      </c>
+      <c r="AB40" s="2">
+        <v>205.999144302069</v>
+      </c>
+      <c r="AC40" s="2">
+        <v>211.83358639696581</v>
+      </c>
+      <c r="AD40" s="2">
+        <v>219.71650506754031</v>
+      </c>
+      <c r="AE40" s="2">
+        <v>229.48652107354701</v>
+      </c>
+      <c r="AF40" s="2">
+        <v>241.8914050614782</v>
+      </c>
+      <c r="AG40" s="2">
+        <v>257.24170893670782</v>
+      </c>
+      <c r="AH40" s="2">
+        <v>274.37268872837211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="2">
+        <v>4354.2568001228847</v>
+      </c>
+      <c r="E41" s="2">
+        <v>4617.6151253468479</v>
+      </c>
+      <c r="F41" s="2">
+        <v>4707.1703205159329</v>
+      </c>
+      <c r="G41" s="2">
+        <v>4816.5780577005153</v>
+      </c>
+      <c r="H41" s="2">
+        <v>4924.207486950485</v>
+      </c>
+      <c r="I41" s="2">
+        <v>5046.5676490570177</v>
+      </c>
+      <c r="J41" s="2">
+        <v>5159.5370095421204</v>
+      </c>
+      <c r="K41" s="2">
+        <v>5268.4400896445004</v>
+      </c>
+      <c r="L41" s="2">
+        <v>5388.2283361628433</v>
+      </c>
+      <c r="M41" s="2">
+        <v>5515.8703073098723</v>
+      </c>
+      <c r="N41" s="2">
+        <v>5583.0714769650212</v>
+      </c>
+      <c r="O41" s="2">
+        <v>5736.4263028288242</v>
+      </c>
+      <c r="P41" s="2">
+        <v>5884.1192538013502</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>5994.6266557319377</v>
+      </c>
+      <c r="R41" s="2">
+        <v>6124.5543010666006</v>
+      </c>
+      <c r="S41" s="2">
+        <v>6273.8782127161248</v>
+      </c>
+      <c r="T41" s="2">
+        <v>6421.6346183414189</v>
+      </c>
+      <c r="U41" s="2">
+        <v>6555.640518683882</v>
+      </c>
+      <c r="V41" s="2">
+        <v>6678.9514817154977</v>
+      </c>
+      <c r="W41" s="2">
+        <v>6797.7299352032433</v>
+      </c>
+      <c r="X41" s="2">
+        <v>6919.6766021609119</v>
+      </c>
+      <c r="Y41" s="2">
+        <v>7039.990388838889</v>
+      </c>
+      <c r="Z41" s="2">
+        <v>7154.3401625195829</v>
+      </c>
+      <c r="AA41" s="2">
+        <v>7277.3172381512741</v>
+      </c>
+      <c r="AB41" s="2">
+        <v>7399.8925862121969</v>
+      </c>
+      <c r="AC41" s="2">
+        <v>7506.1847674842747</v>
+      </c>
+      <c r="AD41" s="2">
+        <v>7621.5960810813276</v>
+      </c>
+      <c r="AE41" s="2">
+        <v>7727.5319587703889</v>
+      </c>
+      <c r="AF41" s="2">
+        <v>7833.2926605363036</v>
+      </c>
+      <c r="AG41" s="2">
+        <v>7933.9488912296929</v>
+      </c>
+      <c r="AH41" s="2">
+        <v>8025.7519563601672</v>
       </c>
     </row>
   </sheetData>

--- a/data/8th_output.xlsx
+++ b/data/8th_output.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\power-model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9D2D09-157B-4022-9AF4-D1A3ED6353C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DCFBB0-8766-4C28-9D41-FC2CD06A02F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="28170" windowHeight="15210" xr2:uid="{7E3120CA-2A18-42E5-81D3-EDAD389011D0}"/>
+    <workbookView xWindow="2175" yWindow="615" windowWidth="23430" windowHeight="14235" xr2:uid="{7E3120CA-2A18-42E5-81D3-EDAD389011D0}"/>
   </bookViews>
   <sheets>
     <sheet name="generation_by_tech" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="53">
   <si>
     <t>Coal</t>
   </si>
@@ -183,6 +183,15 @@
   </si>
   <si>
     <t>Nuclear</t>
+  </si>
+  <si>
+    <t>08_JPN</t>
+  </si>
+  <si>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t>Geothermal</t>
   </si>
   <si>
     <t>Gas CCS</t>
@@ -544,9 +553,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07E161E-0655-4CCA-BD64-BD49C75ACBD9}">
-  <dimension ref="A1:AH41"/>
+  <dimension ref="A1:AJ64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42:D64"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3854,7 +3865,7 @@
         <v>342.08999135957538</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -3862,7 +3873,7 @@
         <v>47</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -3938,7 +3949,7 @@
         <v>437.49831493822302</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -4042,7 +4053,7 @@
         <v>4.4343644879233466</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -4146,7 +4157,7 @@
         <v>840.91439336489418</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -4250,7 +4261,7 @@
         <v>337.49610289648132</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -4354,7 +4365,7 @@
         <v>3015.664567625473</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -4458,7 +4469,7 @@
         <v>2711.9317819592261</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -4562,7 +4573,7 @@
         <v>61.349750999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -4666,7 +4677,7 @@
         <v>274.37268872837211</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -4769,6 +4780,2444 @@
       <c r="AH41" s="2">
         <v>8025.7519563601672</v>
       </c>
+    </row>
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="2">
+        <v>332.23757517758708</v>
+      </c>
+      <c r="E42" s="2">
+        <v>324.33244615545323</v>
+      </c>
+      <c r="F42" s="2">
+        <v>321.44046593130571</v>
+      </c>
+      <c r="G42" s="2">
+        <v>300.60648540922659</v>
+      </c>
+      <c r="H42" s="2">
+        <v>269.73456716743908</v>
+      </c>
+      <c r="I42" s="2">
+        <v>242.13163349367551</v>
+      </c>
+      <c r="J42" s="2">
+        <v>206.83154931244579</v>
+      </c>
+      <c r="K42" s="2">
+        <v>192.1519263371747</v>
+      </c>
+      <c r="L42" s="2">
+        <v>171.89977836000861</v>
+      </c>
+      <c r="M42" s="2">
+        <v>153.4806291184961</v>
+      </c>
+      <c r="N42" s="2">
+        <v>144.3301273173883</v>
+      </c>
+      <c r="O42" s="2">
+        <v>125.9892279066064</v>
+      </c>
+      <c r="P42" s="2">
+        <v>106.73128352528489</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>83.621750267699468</v>
+      </c>
+      <c r="R42" s="2">
+        <v>62.052852560619719</v>
+      </c>
+      <c r="S42" s="2">
+        <v>49.111513936371843</v>
+      </c>
+      <c r="T42" s="2">
+        <v>41.346710761823083</v>
+      </c>
+      <c r="U42" s="2">
+        <v>36.687828857093827</v>
+      </c>
+      <c r="V42" s="2">
+        <v>34.41534700195627</v>
+      </c>
+      <c r="W42" s="2">
+        <v>32.215302228553789</v>
+      </c>
+      <c r="X42" s="2">
+        <v>31.208983737132272</v>
+      </c>
+      <c r="Y42" s="2">
+        <v>29.699505999999971</v>
+      </c>
+      <c r="Z42" s="2">
+        <v>29.699505999999971</v>
+      </c>
+      <c r="AA42" s="2">
+        <v>29.699505999999971</v>
+      </c>
+      <c r="AB42" s="2">
+        <v>29.699506</v>
+      </c>
+      <c r="AC42" s="2">
+        <v>29.699506</v>
+      </c>
+      <c r="AD42" s="2">
+        <v>29.699506</v>
+      </c>
+      <c r="AE42" s="2">
+        <v>29.699506</v>
+      </c>
+      <c r="AF42" s="2">
+        <v>29.699506</v>
+      </c>
+      <c r="AG42" s="2">
+        <v>29.699506</v>
+      </c>
+      <c r="AH42" s="2">
+        <v>29.699506</v>
+      </c>
+      <c r="AI42" s="2"/>
+      <c r="AJ42" s="2"/>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="2">
+        <v>36.87506176053391</v>
+      </c>
+      <c r="E43" s="2">
+        <v>31.256491745921991</v>
+      </c>
+      <c r="F43" s="2">
+        <v>28.287021129996219</v>
+      </c>
+      <c r="G43" s="2">
+        <v>25.71627193946674</v>
+      </c>
+      <c r="H43" s="2">
+        <v>22.10510460612586</v>
+      </c>
+      <c r="I43" s="2">
+        <v>19.023298699907169</v>
+      </c>
+      <c r="J43" s="2">
+        <v>16.392065690386271</v>
+      </c>
+      <c r="K43" s="2">
+        <v>14.144404542520221</v>
+      </c>
+      <c r="L43" s="2">
+        <v>12.22333513154949</v>
+      </c>
+      <c r="M43" s="2">
+        <v>9.8811714643891371</v>
+      </c>
+      <c r="N43" s="2">
+        <v>8.2878846336196474</v>
+      </c>
+      <c r="O43" s="2">
+        <v>6.8919241607989239</v>
+      </c>
+      <c r="P43" s="2">
+        <v>5.6636910922346422</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>4.5780263172883364</v>
+      </c>
+      <c r="R43" s="2">
+        <v>3.8913223696950818</v>
+      </c>
+      <c r="S43" s="2">
+        <v>3.3076240142408211</v>
+      </c>
+      <c r="T43" s="2">
+        <v>2.811480412104697</v>
+      </c>
+      <c r="U43" s="2">
+        <v>2.3897583502889921</v>
+      </c>
+      <c r="V43" s="2">
+        <v>2.0312945977456458</v>
+      </c>
+      <c r="W43" s="2">
+        <v>1.726600408083798</v>
+      </c>
+      <c r="X43" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI43" s="2"/>
+      <c r="AJ43" s="2"/>
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2">
+        <v>389.66801388739998</v>
+      </c>
+      <c r="E44" s="2">
+        <v>368.05363809927542</v>
+      </c>
+      <c r="F44" s="2">
+        <v>355.81042797204088</v>
+      </c>
+      <c r="G44" s="2">
+        <v>347.59001261026918</v>
+      </c>
+      <c r="H44" s="2">
+        <v>339.54777416119379</v>
+      </c>
+      <c r="I44" s="2">
+        <v>333.37281413443128</v>
+      </c>
+      <c r="J44" s="2">
+        <v>324.20399260034742</v>
+      </c>
+      <c r="K44" s="2">
+        <v>314.93413300818492</v>
+      </c>
+      <c r="L44" s="2">
+        <v>304.96306783304811</v>
+      </c>
+      <c r="M44" s="2">
+        <v>294.95810261656891</v>
+      </c>
+      <c r="N44" s="2">
+        <v>284.88169992400952</v>
+      </c>
+      <c r="O44" s="2">
+        <v>275.34983362327762</v>
+      </c>
+      <c r="P44" s="2">
+        <v>265.79600007963808</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>257.24271793205497</v>
+      </c>
+      <c r="R44" s="2">
+        <v>248.4658468659936</v>
+      </c>
+      <c r="S44" s="2">
+        <v>240.62017330649641</v>
+      </c>
+      <c r="T44" s="2">
+        <v>233.9522958376098</v>
+      </c>
+      <c r="U44" s="2">
+        <v>227.93542366141659</v>
+      </c>
+      <c r="V44" s="2">
+        <v>222.54195170543531</v>
+      </c>
+      <c r="W44" s="2">
+        <v>218.31562381708301</v>
+      </c>
+      <c r="X44" s="2">
+        <v>214.21456043923379</v>
+      </c>
+      <c r="Y44" s="2">
+        <v>210.49768004408921</v>
+      </c>
+      <c r="Z44" s="2">
+        <v>208.08835587729459</v>
+      </c>
+      <c r="AA44" s="2">
+        <v>206.15829072496581</v>
+      </c>
+      <c r="AB44" s="2">
+        <v>205.26677228504099</v>
+      </c>
+      <c r="AC44" s="2">
+        <v>204.3157132478191</v>
+      </c>
+      <c r="AD44" s="2">
+        <v>203.92312078209221</v>
+      </c>
+      <c r="AE44" s="2">
+        <v>204.09376738875429</v>
+      </c>
+      <c r="AF44" s="2">
+        <v>205.3924151947142</v>
+      </c>
+      <c r="AG44" s="2">
+        <v>206.74258661371189</v>
+      </c>
+      <c r="AH44" s="2">
+        <v>208.75570038373041</v>
+      </c>
+      <c r="AI44" s="2"/>
+      <c r="AJ44" s="2"/>
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="2">
+        <v>77.538466782743626</v>
+      </c>
+      <c r="E45" s="2">
+        <v>83.718108927761747</v>
+      </c>
+      <c r="F45" s="2">
+        <v>83.718108927761747</v>
+      </c>
+      <c r="G45" s="2">
+        <v>83.718108927761747</v>
+      </c>
+      <c r="H45" s="2">
+        <v>84.007790965574074</v>
+      </c>
+      <c r="I45" s="2">
+        <v>84.007790965574074</v>
+      </c>
+      <c r="J45" s="2">
+        <v>84.007790965574074</v>
+      </c>
+      <c r="K45" s="2">
+        <v>84.007790965574074</v>
+      </c>
+      <c r="L45" s="2">
+        <v>84.007790965574074</v>
+      </c>
+      <c r="M45" s="2">
+        <v>84.007790965574074</v>
+      </c>
+      <c r="N45" s="2">
+        <v>84.007790965574074</v>
+      </c>
+      <c r="O45" s="2">
+        <v>84.007790965574074</v>
+      </c>
+      <c r="P45" s="2">
+        <v>84.007790965574074</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>84.007790965574074</v>
+      </c>
+      <c r="R45" s="2">
+        <v>84.007790965574074</v>
+      </c>
+      <c r="S45" s="2">
+        <v>84.007790965574074</v>
+      </c>
+      <c r="T45" s="2">
+        <v>84.007790965574074</v>
+      </c>
+      <c r="U45" s="2">
+        <v>84.007790965574074</v>
+      </c>
+      <c r="V45" s="2">
+        <v>84.007790965574074</v>
+      </c>
+      <c r="W45" s="2">
+        <v>84.007790965574074</v>
+      </c>
+      <c r="X45" s="2">
+        <v>84.007790965574074</v>
+      </c>
+      <c r="Y45" s="2">
+        <v>84.007790965574074</v>
+      </c>
+      <c r="Z45" s="2">
+        <v>84.007790965574074</v>
+      </c>
+      <c r="AA45" s="2">
+        <v>84.007790965574074</v>
+      </c>
+      <c r="AB45" s="2">
+        <v>84.007790965574074</v>
+      </c>
+      <c r="AC45" s="2">
+        <v>84.007790965574074</v>
+      </c>
+      <c r="AD45" s="2">
+        <v>84.007790965574074</v>
+      </c>
+      <c r="AE45" s="2">
+        <v>84.007790965574074</v>
+      </c>
+      <c r="AF45" s="2">
+        <v>84.007790965574074</v>
+      </c>
+      <c r="AG45" s="2">
+        <v>84.007790965574074</v>
+      </c>
+      <c r="AH45" s="2">
+        <v>84.007790965574074</v>
+      </c>
+      <c r="AI45" s="2"/>
+      <c r="AJ45" s="2"/>
+    </row>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="2">
+        <v>43</v>
+      </c>
+      <c r="E46" s="2">
+        <v>65.915666111111193</v>
+      </c>
+      <c r="F46" s="2">
+        <v>70.621221666666671</v>
+      </c>
+      <c r="G46" s="2">
+        <v>92.729856000000026</v>
+      </c>
+      <c r="H46" s="2">
+        <v>115.91232000000009</v>
+      </c>
+      <c r="I46" s="2">
+        <v>144.8904000000002</v>
+      </c>
+      <c r="J46" s="2">
+        <v>173.53990605214949</v>
+      </c>
+      <c r="K46" s="2">
+        <v>183.80984639314039</v>
+      </c>
+      <c r="L46" s="2">
+        <v>196.01460659713479</v>
+      </c>
+      <c r="M46" s="2">
+        <v>202.94967997782979</v>
+      </c>
+      <c r="N46" s="2">
+        <v>202.83500856267699</v>
+      </c>
+      <c r="O46" s="2">
+        <v>224.6523880821494</v>
+      </c>
+      <c r="P46" s="2">
+        <v>238.02171066547271</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>254.59336735077201</v>
+      </c>
+      <c r="R46" s="2">
+        <v>268.65907628072029</v>
+      </c>
+      <c r="S46" s="2">
+        <v>273.57454408188892</v>
+      </c>
+      <c r="T46" s="2">
+        <v>271.58188673781359</v>
+      </c>
+      <c r="U46" s="2">
+        <v>265.83318240939218</v>
+      </c>
+      <c r="V46" s="2">
+        <v>256.88700051377413</v>
+      </c>
+      <c r="W46" s="2">
+        <v>247.82525900971731</v>
+      </c>
+      <c r="X46" s="2">
+        <v>238.1697036891718</v>
+      </c>
+      <c r="Y46" s="2">
+        <v>236.09212557701881</v>
+      </c>
+      <c r="Z46" s="2">
+        <v>231.44309688500169</v>
+      </c>
+      <c r="AA46" s="2">
+        <v>226.61843331670829</v>
+      </c>
+      <c r="AB46" s="2">
+        <v>221.75540516879309</v>
+      </c>
+      <c r="AC46" s="2">
+        <v>216.67116623319041</v>
+      </c>
+      <c r="AD46" s="2">
+        <v>211.24100283871419</v>
+      </c>
+      <c r="AE46" s="2">
+        <v>206.6947029214158</v>
+      </c>
+      <c r="AF46" s="2">
+        <v>202.02158313880889</v>
+      </c>
+      <c r="AG46" s="2">
+        <v>197.05165066726369</v>
+      </c>
+      <c r="AH46" s="2">
+        <v>189.87300037974589</v>
+      </c>
+      <c r="AI46" s="2"/>
+      <c r="AJ46" s="2"/>
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="2">
+        <v>8.6539999999999981</v>
+      </c>
+      <c r="E47" s="2">
+        <v>12.385909583783929</v>
+      </c>
+      <c r="F47" s="2">
+        <v>14.45495819811069</v>
+      </c>
+      <c r="G47" s="2">
+        <v>18.59305542676422</v>
+      </c>
+      <c r="H47" s="2">
+        <v>30.776605962875099</v>
+      </c>
+      <c r="I47" s="2">
+        <v>34.914703191528609</v>
+      </c>
+      <c r="J47" s="2">
+        <v>39.6896436899017</v>
+      </c>
+      <c r="K47" s="2">
+        <v>44.676865278181317</v>
+      </c>
+      <c r="L47" s="2">
+        <v>49.87636795636746</v>
+      </c>
+      <c r="M47" s="2">
+        <v>59.001686773300626</v>
+      </c>
+      <c r="N47" s="2">
+        <v>72.265102818887271</v>
+      </c>
+      <c r="O47" s="2">
+        <v>72.265102818887271</v>
+      </c>
+      <c r="P47" s="2">
+        <v>80.541297276194385</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>88.817491733501427</v>
+      </c>
+      <c r="R47" s="2">
+        <v>97.093686190808427</v>
+      </c>
+      <c r="S47" s="2">
+        <v>105.3698806481155</v>
+      </c>
+      <c r="T47" s="2">
+        <v>113.6460751054226</v>
+      </c>
+      <c r="U47" s="2">
+        <v>121.9222695627296</v>
+      </c>
+      <c r="V47" s="2">
+        <v>130.1984640200366</v>
+      </c>
+      <c r="W47" s="2">
+        <v>138.47465847734361</v>
+      </c>
+      <c r="X47" s="2">
+        <v>146.7508529346506</v>
+      </c>
+      <c r="Y47" s="2">
+        <v>146.7508529346506</v>
+      </c>
+      <c r="Z47" s="2">
+        <v>146.7508529346506</v>
+      </c>
+      <c r="AA47" s="2">
+        <v>146.7508529346506</v>
+      </c>
+      <c r="AB47" s="2">
+        <v>146.7508529346506</v>
+      </c>
+      <c r="AC47" s="2">
+        <v>146.7508529346506</v>
+      </c>
+      <c r="AD47" s="2">
+        <v>146.7508529346506</v>
+      </c>
+      <c r="AE47" s="2">
+        <v>146.7508529346506</v>
+      </c>
+      <c r="AF47" s="2">
+        <v>146.7508529346506</v>
+      </c>
+      <c r="AG47" s="2">
+        <v>146.7508529346506</v>
+      </c>
+      <c r="AH47" s="2">
+        <v>146.7508529346506</v>
+      </c>
+      <c r="AI47" s="2"/>
+      <c r="AJ47" s="2"/>
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="2">
+        <v>78.643999999999963</v>
+      </c>
+      <c r="E48" s="2">
+        <v>88.216497544959822</v>
+      </c>
+      <c r="F48" s="2">
+        <v>92.022506433480217</v>
+      </c>
+      <c r="G48" s="2">
+        <v>95.828515322000555</v>
+      </c>
+      <c r="H48" s="2">
+        <v>99.662929267281299</v>
+      </c>
+      <c r="I48" s="2">
+        <v>102.48691996956509</v>
+      </c>
+      <c r="J48" s="2">
+        <v>113.7828827787005</v>
+      </c>
+      <c r="K48" s="2">
+        <v>122.25485488555179</v>
+      </c>
+      <c r="L48" s="2">
+        <v>130.7268269924034</v>
+      </c>
+      <c r="M48" s="2">
+        <v>139.1987990992549</v>
+      </c>
+      <c r="N48" s="2">
+        <v>140.61079445039681</v>
+      </c>
+      <c r="O48" s="2">
+        <v>141.57528893889199</v>
+      </c>
+      <c r="P48" s="2">
+        <v>142.54749938329519</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>143.52748751125341</v>
+      </c>
+      <c r="R48" s="2">
+        <v>144.51531554423559</v>
+      </c>
+      <c r="S48" s="2">
+        <v>145.51104620148169</v>
+      </c>
+      <c r="T48" s="2">
+        <v>146.51474270398529</v>
+      </c>
+      <c r="U48" s="2">
+        <v>147.52646877850921</v>
+      </c>
+      <c r="V48" s="2">
+        <v>148.54628866162929</v>
+      </c>
+      <c r="W48" s="2">
+        <v>149.57426710381449</v>
+      </c>
+      <c r="X48" s="2">
+        <v>150.61046937353709</v>
+      </c>
+      <c r="Y48" s="2">
+        <v>151.65496126141741</v>
+      </c>
+      <c r="Z48" s="2">
+        <v>152.70780908440079</v>
+      </c>
+      <c r="AA48" s="2">
+        <v>153.76907968996821</v>
+      </c>
+      <c r="AB48" s="2">
+        <v>154.8388404603798</v>
+      </c>
+      <c r="AC48" s="2">
+        <v>155.91715931695501</v>
+      </c>
+      <c r="AD48" s="2">
+        <v>157.0041047243827</v>
+      </c>
+      <c r="AE48" s="2">
+        <v>157.0041047243827</v>
+      </c>
+      <c r="AF48" s="2">
+        <v>157.0041047243827</v>
+      </c>
+      <c r="AG48" s="2">
+        <v>157.0041047243827</v>
+      </c>
+      <c r="AH48" s="2">
+        <v>158.76616018935511</v>
+      </c>
+      <c r="AI48" s="2"/>
+      <c r="AJ48" s="2"/>
+    </row>
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" s="2">
+        <v>21.184413042368821</v>
+      </c>
+      <c r="E49" s="2">
+        <v>21.184412999999982</v>
+      </c>
+      <c r="F49" s="2">
+        <v>22.948259916685469</v>
+      </c>
+      <c r="G49" s="2">
+        <v>21.184412999999982</v>
+      </c>
+      <c r="H49" s="2">
+        <v>21.184412999999999</v>
+      </c>
+      <c r="I49" s="2">
+        <v>21.184412999999999</v>
+      </c>
+      <c r="J49" s="2">
+        <v>21.184412999999999</v>
+      </c>
+      <c r="K49" s="2">
+        <v>21.184412999999999</v>
+      </c>
+      <c r="L49" s="2">
+        <v>21.184412999999999</v>
+      </c>
+      <c r="M49" s="2">
+        <v>21.184412999999999</v>
+      </c>
+      <c r="N49" s="2">
+        <v>21.184412999999999</v>
+      </c>
+      <c r="O49" s="2">
+        <v>21.184412999999999</v>
+      </c>
+      <c r="P49" s="2">
+        <v>21.184412999999999</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>21.184412999999999</v>
+      </c>
+      <c r="R49" s="2">
+        <v>21.184412999999999</v>
+      </c>
+      <c r="S49" s="2">
+        <v>21.184412999999999</v>
+      </c>
+      <c r="T49" s="2">
+        <v>21.184412999999999</v>
+      </c>
+      <c r="U49" s="2">
+        <v>21.184412999999999</v>
+      </c>
+      <c r="V49" s="2">
+        <v>21.184412999999999</v>
+      </c>
+      <c r="W49" s="2">
+        <v>21.184412999999999</v>
+      </c>
+      <c r="X49" s="2">
+        <v>21.184412999999999</v>
+      </c>
+      <c r="Y49" s="2">
+        <v>21.184412999999999</v>
+      </c>
+      <c r="Z49" s="2">
+        <v>21.184412999999999</v>
+      </c>
+      <c r="AA49" s="2">
+        <v>21.184412999999999</v>
+      </c>
+      <c r="AB49" s="2">
+        <v>21.184412999999999</v>
+      </c>
+      <c r="AC49" s="2">
+        <v>21.184412999999999</v>
+      </c>
+      <c r="AD49" s="2">
+        <v>21.184412999999999</v>
+      </c>
+      <c r="AE49" s="2">
+        <v>21.184412999999999</v>
+      </c>
+      <c r="AF49" s="2">
+        <v>21.184412999999999</v>
+      </c>
+      <c r="AG49" s="2">
+        <v>21.184412999999999</v>
+      </c>
+      <c r="AH49" s="2">
+        <v>21.184412999999999</v>
+      </c>
+      <c r="AI49" s="2"/>
+      <c r="AJ49" s="2"/>
+    </row>
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="2">
+        <v>2.6000000052000001</v>
+      </c>
+      <c r="E50" s="2">
+        <v>2.8691320812099641</v>
+      </c>
+      <c r="F50" s="2">
+        <v>2.8691320812099641</v>
+      </c>
+      <c r="G50" s="2">
+        <v>2.8691320812099641</v>
+      </c>
+      <c r="H50" s="2">
+        <v>2.816000005632</v>
+      </c>
+      <c r="I50" s="2">
+        <v>2.816000005632</v>
+      </c>
+      <c r="J50" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="K50" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="L50" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="M50" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="N50" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="O50" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="P50" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="R50" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="S50" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="T50" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="U50" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="V50" s="2">
+        <v>2.816000005632</v>
+      </c>
+      <c r="W50" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="X50" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="Y50" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="Z50" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="AA50" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="AB50" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="AC50" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="AD50" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="AE50" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="AF50" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="AG50" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="AH50" s="2">
+        <v>2.816000005632</v>
+      </c>
+      <c r="AI50" s="2"/>
+      <c r="AJ50" s="2"/>
+    </row>
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="2">
+        <v>15.98748299999999</v>
+      </c>
+      <c r="E51" s="2">
+        <v>15.987482999999999</v>
+      </c>
+      <c r="F51" s="2">
+        <v>15.98748300000001</v>
+      </c>
+      <c r="G51" s="2">
+        <v>15.98748299999999</v>
+      </c>
+      <c r="H51" s="2">
+        <v>15.98748299999999</v>
+      </c>
+      <c r="I51" s="2">
+        <v>15.987482999999999</v>
+      </c>
+      <c r="J51" s="2">
+        <v>15.987482999999999</v>
+      </c>
+      <c r="K51" s="2">
+        <v>15.987482999999999</v>
+      </c>
+      <c r="L51" s="2">
+        <v>15.98748299999999</v>
+      </c>
+      <c r="M51" s="2">
+        <v>15.987482999999999</v>
+      </c>
+      <c r="N51" s="2">
+        <v>15.98748299999999</v>
+      </c>
+      <c r="O51" s="2">
+        <v>15.987482999999999</v>
+      </c>
+      <c r="P51" s="2">
+        <v>15.987482999999999</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>15.987482999999999</v>
+      </c>
+      <c r="R51" s="2">
+        <v>15.987482999999999</v>
+      </c>
+      <c r="S51" s="2">
+        <v>15.987482999999999</v>
+      </c>
+      <c r="T51" s="2">
+        <v>15.987482999999999</v>
+      </c>
+      <c r="U51" s="2">
+        <v>15.987482999999999</v>
+      </c>
+      <c r="V51" s="2">
+        <v>15.987482999999999</v>
+      </c>
+      <c r="W51" s="2">
+        <v>15.987482999999999</v>
+      </c>
+      <c r="X51" s="2">
+        <v>15.987482999999999</v>
+      </c>
+      <c r="Y51" s="2">
+        <v>15.987482999999999</v>
+      </c>
+      <c r="Z51" s="2">
+        <v>15.98748299999999</v>
+      </c>
+      <c r="AA51" s="2">
+        <v>15.98748299999999</v>
+      </c>
+      <c r="AB51" s="2">
+        <v>15.98748299999999</v>
+      </c>
+      <c r="AC51" s="2">
+        <v>15.98748299999999</v>
+      </c>
+      <c r="AD51" s="2">
+        <v>15.98748299999999</v>
+      </c>
+      <c r="AE51" s="2">
+        <v>15.98748299999999</v>
+      </c>
+      <c r="AF51" s="2">
+        <v>15.98748299999999</v>
+      </c>
+      <c r="AG51" s="2">
+        <v>15.98748299999999</v>
+      </c>
+      <c r="AH51" s="2">
+        <v>15.987482999999999</v>
+      </c>
+      <c r="AI51" s="2"/>
+      <c r="AJ51" s="2"/>
+    </row>
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1006.389013655833</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1013.9197862494771</v>
+      </c>
+      <c r="F52" s="2">
+        <v>1008.159585257258</v>
+      </c>
+      <c r="G52" s="2">
+        <v>1004.823333716699</v>
+      </c>
+      <c r="H52" s="2">
+        <v>1001.734988136121</v>
+      </c>
+      <c r="I52" s="2">
+        <v>1000.815456460314</v>
+      </c>
+      <c r="J52" s="2">
+        <v>998.21972708950523</v>
+      </c>
+      <c r="K52" s="2">
+        <v>995.75171741032739</v>
+      </c>
+      <c r="L52" s="2">
+        <v>989.48366983608594</v>
+      </c>
+      <c r="M52" s="2">
+        <v>983.2497560154136</v>
+      </c>
+      <c r="N52" s="2">
+        <v>976.99030467255261</v>
+      </c>
+      <c r="O52" s="2">
+        <v>970.50345249618567</v>
+      </c>
+      <c r="P52" s="2">
+        <v>963.08116898769413</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>956.1605280781439</v>
+      </c>
+      <c r="R52" s="2">
+        <v>948.45778677764679</v>
+      </c>
+      <c r="S52" s="2">
+        <v>941.27446915416931</v>
+      </c>
+      <c r="T52" s="2">
+        <v>933.63287852433314</v>
+      </c>
+      <c r="U52" s="2">
+        <v>926.0746185850046</v>
+      </c>
+      <c r="V52" s="2">
+        <v>918.61603347178323</v>
+      </c>
+      <c r="W52" s="2">
+        <v>911.91139801016993</v>
+      </c>
+      <c r="X52" s="2">
+        <v>904.73425713929964</v>
+      </c>
+      <c r="Y52" s="2">
+        <v>898.47481278274995</v>
+      </c>
+      <c r="Z52" s="2">
+        <v>892.4693077469218</v>
+      </c>
+      <c r="AA52" s="2">
+        <v>886.77584963186689</v>
+      </c>
+      <c r="AB52" s="2">
+        <v>882.09106381443848</v>
+      </c>
+      <c r="AC52" s="2">
+        <v>877.13408469818921</v>
+      </c>
+      <c r="AD52" s="2">
+        <v>872.39827424541386</v>
+      </c>
+      <c r="AE52" s="2">
+        <v>868.02262093477748</v>
+      </c>
+      <c r="AF52" s="2">
+        <v>864.64814895813061</v>
+      </c>
+      <c r="AG52" s="2">
+        <v>861.02838790558303</v>
+      </c>
+      <c r="AH52" s="2">
+        <v>857.84090685868819</v>
+      </c>
+      <c r="AI52" s="2"/>
+      <c r="AJ52" s="2"/>
+    </row>
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="2">
+        <v>330.74181955711111</v>
+      </c>
+      <c r="E53" s="2">
+        <v>325.75367267247282</v>
+      </c>
+      <c r="F53" s="2">
+        <v>319.94471031082992</v>
+      </c>
+      <c r="G53" s="2">
+        <v>300.87867512952067</v>
+      </c>
+      <c r="H53" s="2">
+        <v>274.40023695907269</v>
+      </c>
+      <c r="I53" s="2">
+        <v>243.57423160521409</v>
+      </c>
+      <c r="J53" s="2">
+        <v>214.30796940971439</v>
+      </c>
+      <c r="K53" s="2">
+        <v>184.68447011830239</v>
+      </c>
+      <c r="L53" s="2">
+        <v>158.85591288706919</v>
+      </c>
+      <c r="M53" s="2">
+        <v>135.2127345726829</v>
+      </c>
+      <c r="N53" s="2">
+        <v>119.30931160098289</v>
+      </c>
+      <c r="O53" s="2">
+        <v>94.358232857709069</v>
+      </c>
+      <c r="P53" s="2">
+        <v>93.699789086820687</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>92.923991101764955</v>
+      </c>
+      <c r="R53" s="2">
+        <v>90.045503631813958</v>
+      </c>
+      <c r="S53" s="2">
+        <v>86.319620106907266</v>
+      </c>
+      <c r="T53" s="2">
+        <v>82.150969608185193</v>
+      </c>
+      <c r="U53" s="2">
+        <v>74.358670369040027</v>
+      </c>
+      <c r="V53" s="2">
+        <v>69.219186741777222</v>
+      </c>
+      <c r="W53" s="2">
+        <v>55.770436162360546</v>
+      </c>
+      <c r="X53" s="2">
+        <v>20.76893253975491</v>
+      </c>
+      <c r="Y53" s="2">
+        <v>15.041713319045609</v>
+      </c>
+      <c r="Z53" s="2">
+        <v>8.0334889996455452</v>
+      </c>
+      <c r="AA53" s="2">
+        <v>7.9544977490007582</v>
+      </c>
+      <c r="AB53" s="2">
+        <v>7.6911352123502894</v>
+      </c>
+      <c r="AC53" s="2">
+        <v>6.839583447698244</v>
+      </c>
+      <c r="AD53" s="2">
+        <v>5.3131752294343366</v>
+      </c>
+      <c r="AE53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI53" s="2"/>
+      <c r="AJ53" s="2"/>
+    </row>
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="2">
+        <v>32.225939873335143</v>
+      </c>
+      <c r="E54" s="2">
+        <v>30.267700384232249</v>
+      </c>
+      <c r="F54" s="2">
+        <v>27.347669336390929</v>
+      </c>
+      <c r="G54" s="2">
+        <v>24.823887735541721</v>
+      </c>
+      <c r="H54" s="2">
+        <v>21.257339612397121</v>
+      </c>
+      <c r="I54" s="2">
+        <v>18.217921955864821</v>
+      </c>
+      <c r="J54" s="2">
+        <v>15.62695778354604</v>
+      </c>
+      <c r="K54" s="2">
+        <v>13.41755203102201</v>
+      </c>
+      <c r="L54" s="2">
+        <v>11.53282524562621</v>
+      </c>
+      <c r="M54" s="2">
+        <v>9.9244121770768974</v>
+      </c>
+      <c r="N54" s="2">
+        <v>8.5511855328952446</v>
+      </c>
+      <c r="O54" s="2">
+        <v>7.3781711262218543</v>
+      </c>
+      <c r="P54" s="2">
+        <v>6.3756257093864201</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>4.5780263172883346</v>
+      </c>
+      <c r="R54" s="2">
+        <v>3.8913223696950858</v>
+      </c>
+      <c r="S54" s="2">
+        <v>3.3076240142408211</v>
+      </c>
+      <c r="T54" s="2">
+        <v>2.8114804121046979</v>
+      </c>
+      <c r="U54" s="2">
+        <v>2.3897583502889921</v>
+      </c>
+      <c r="V54" s="2">
+        <v>2.0312945977456449</v>
+      </c>
+      <c r="W54" s="2">
+        <v>1.7266004080837991</v>
+      </c>
+      <c r="X54" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI54" s="2"/>
+      <c r="AJ54" s="2"/>
+    </row>
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2">
+        <v>389.66801388739992</v>
+      </c>
+      <c r="E55" s="2">
+        <v>358.58733523114859</v>
+      </c>
+      <c r="F55" s="2">
+        <v>342.87640186328889</v>
+      </c>
+      <c r="G55" s="2">
+        <v>326.49924534691638</v>
+      </c>
+      <c r="H55" s="2">
+        <v>314.86704976443173</v>
+      </c>
+      <c r="I55" s="2">
+        <v>305.21776862231269</v>
+      </c>
+      <c r="J55" s="2">
+        <v>292.86412120351088</v>
+      </c>
+      <c r="K55" s="2">
+        <v>280.61259974611608</v>
+      </c>
+      <c r="L55" s="2">
+        <v>267.90142636371701</v>
+      </c>
+      <c r="M55" s="2">
+        <v>255.35652500273889</v>
+      </c>
+      <c r="N55" s="2">
+        <v>242.93952035411371</v>
+      </c>
+      <c r="O55" s="2">
+        <v>230.83385582152439</v>
+      </c>
+      <c r="P55" s="2">
+        <v>217.93231183211839</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>204.09199809567471</v>
+      </c>
+      <c r="R55" s="2">
+        <v>191.62989574416969</v>
+      </c>
+      <c r="S55" s="2">
+        <v>179.91915505097651</v>
+      </c>
+      <c r="T55" s="2">
+        <v>170.6478139322877</v>
+      </c>
+      <c r="U55" s="2">
+        <v>162.29194289954029</v>
+      </c>
+      <c r="V55" s="2">
+        <v>156.5746651205101</v>
+      </c>
+      <c r="W55" s="2">
+        <v>149.0669808556388</v>
+      </c>
+      <c r="X55" s="2">
+        <v>142.858742201198</v>
+      </c>
+      <c r="Y55" s="2">
+        <v>133.17821243991079</v>
+      </c>
+      <c r="Z55" s="2">
+        <v>124.0728237850286</v>
+      </c>
+      <c r="AA55" s="2">
+        <v>112.574443531562</v>
+      </c>
+      <c r="AB55" s="2">
+        <v>98.359863683784582</v>
+      </c>
+      <c r="AC55" s="2">
+        <v>89.235217559188854</v>
+      </c>
+      <c r="AD55" s="2">
+        <v>92.056197162782468</v>
+      </c>
+      <c r="AE55" s="2">
+        <v>76.311634422912277</v>
+      </c>
+      <c r="AF55" s="2">
+        <v>71.665791784325094</v>
+      </c>
+      <c r="AG55" s="2">
+        <v>69.536135973211131</v>
+      </c>
+      <c r="AH55" s="2">
+        <v>63.060341665864797</v>
+      </c>
+      <c r="AI55" s="2"/>
+      <c r="AJ55" s="2"/>
+    </row>
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" t="s">
+        <v>52</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0</v>
+      </c>
+      <c r="F56" s="2">
+        <v>0</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0</v>
+      </c>
+      <c r="K56" s="2">
+        <v>0</v>
+      </c>
+      <c r="L56" s="2">
+        <v>0</v>
+      </c>
+      <c r="M56" s="2">
+        <v>0</v>
+      </c>
+      <c r="N56" s="2">
+        <v>0</v>
+      </c>
+      <c r="O56" s="2">
+        <v>0</v>
+      </c>
+      <c r="P56" s="2">
+        <v>0.97607471009353053</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>3.9872652079397821</v>
+      </c>
+      <c r="R56" s="2">
+        <v>5.6002286777520771</v>
+      </c>
+      <c r="S56" s="2">
+        <v>7.4669715703361046</v>
+      </c>
+      <c r="T56" s="2">
+        <v>8.2722331967221834</v>
+      </c>
+      <c r="U56" s="2">
+        <v>8.9164424864305012</v>
+      </c>
+      <c r="V56" s="2">
+        <v>7.6426649883689999</v>
+      </c>
+      <c r="W56" s="2">
+        <v>9.3410349857843347</v>
+      </c>
+      <c r="X56" s="2">
+        <v>10.038361721726529</v>
+      </c>
+      <c r="Y56" s="2">
+        <v>14.670914698167641</v>
+      </c>
+      <c r="Z56" s="2">
+        <v>20.002463426205431</v>
+      </c>
+      <c r="AA56" s="2">
+        <v>28.288020289786441</v>
+      </c>
+      <c r="AB56" s="2">
+        <v>40.317187151046546</v>
+      </c>
+      <c r="AC56" s="2">
+        <v>47.361435012144781</v>
+      </c>
+      <c r="AD56" s="2">
+        <v>43.084391366534618</v>
+      </c>
+      <c r="AE56" s="2">
+        <v>58.001175814827668</v>
+      </c>
+      <c r="AF56" s="2">
+        <v>62.909919162361248</v>
+      </c>
+      <c r="AG56" s="2">
+        <v>65.512876477769112</v>
+      </c>
+      <c r="AH56" s="2">
+        <v>73.176627286994375</v>
+      </c>
+      <c r="AI56" s="2"/>
+      <c r="AJ56" s="2"/>
+    </row>
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="2">
+        <v>77.538466782743626</v>
+      </c>
+      <c r="E57" s="2">
+        <v>83.718108927761747</v>
+      </c>
+      <c r="F57" s="2">
+        <v>83.718108927761747</v>
+      </c>
+      <c r="G57" s="2">
+        <v>83.718108927761747</v>
+      </c>
+      <c r="H57" s="2">
+        <v>84.007790965574074</v>
+      </c>
+      <c r="I57" s="2">
+        <v>84.007790965574074</v>
+      </c>
+      <c r="J57" s="2">
+        <v>84.007790965574074</v>
+      </c>
+      <c r="K57" s="2">
+        <v>84.007790965574074</v>
+      </c>
+      <c r="L57" s="2">
+        <v>84.007790965574074</v>
+      </c>
+      <c r="M57" s="2">
+        <v>84.007790965574074</v>
+      </c>
+      <c r="N57" s="2">
+        <v>84.007790965574074</v>
+      </c>
+      <c r="O57" s="2">
+        <v>84.007790965574074</v>
+      </c>
+      <c r="P57" s="2">
+        <v>84.007790965574074</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>84.007790965574074</v>
+      </c>
+      <c r="R57" s="2">
+        <v>84.007790965574074</v>
+      </c>
+      <c r="S57" s="2">
+        <v>84.007790965574074</v>
+      </c>
+      <c r="T57" s="2">
+        <v>84.007790965574074</v>
+      </c>
+      <c r="U57" s="2">
+        <v>84.007790965574074</v>
+      </c>
+      <c r="V57" s="2">
+        <v>84.007790965574074</v>
+      </c>
+      <c r="W57" s="2">
+        <v>84.007790965574074</v>
+      </c>
+      <c r="X57" s="2">
+        <v>84.007790965574074</v>
+      </c>
+      <c r="Y57" s="2">
+        <v>84.007790965574074</v>
+      </c>
+      <c r="Z57" s="2">
+        <v>84.007790965574074</v>
+      </c>
+      <c r="AA57" s="2">
+        <v>84.007790965574074</v>
+      </c>
+      <c r="AB57" s="2">
+        <v>84.007790965574074</v>
+      </c>
+      <c r="AC57" s="2">
+        <v>84.007790965574074</v>
+      </c>
+      <c r="AD57" s="2">
+        <v>84.007790965574074</v>
+      </c>
+      <c r="AE57" s="2">
+        <v>84.007790965574074</v>
+      </c>
+      <c r="AF57" s="2">
+        <v>84.007790965574074</v>
+      </c>
+      <c r="AG57" s="2">
+        <v>84.007790965574074</v>
+      </c>
+      <c r="AH57" s="2">
+        <v>84.007790965574074</v>
+      </c>
+      <c r="AI57" s="2"/>
+      <c r="AJ57" s="2"/>
+    </row>
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>43</v>
+      </c>
+      <c r="B58" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58" t="s">
+        <v>48</v>
+      </c>
+      <c r="D58" s="2">
+        <v>43</v>
+      </c>
+      <c r="E58" s="2">
+        <v>65.915666111111193</v>
+      </c>
+      <c r="F58" s="2">
+        <v>70.621221666666671</v>
+      </c>
+      <c r="G58" s="2">
+        <v>92.729856000000026</v>
+      </c>
+      <c r="H58" s="2">
+        <v>115.91231999999999</v>
+      </c>
+      <c r="I58" s="2">
+        <v>144.89040000000011</v>
+      </c>
+      <c r="J58" s="2">
+        <v>173.86848000000009</v>
+      </c>
+      <c r="K58" s="2">
+        <v>202.8465600000001</v>
+      </c>
+      <c r="L58" s="2">
+        <v>220.1133777777778</v>
+      </c>
+      <c r="M58" s="2">
+        <v>234.60241777777779</v>
+      </c>
+      <c r="N58" s="2">
+        <v>247.2266488888886</v>
+      </c>
+      <c r="O58" s="2">
+        <v>277.14012055427997</v>
+      </c>
+      <c r="P58" s="2">
+        <v>277.14012055427997</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>277.14012055427997</v>
+      </c>
+      <c r="R58" s="2">
+        <v>277.14012055427997</v>
+      </c>
+      <c r="S58" s="2">
+        <v>277.14012055427997</v>
+      </c>
+      <c r="T58" s="2">
+        <v>275.50200055100407</v>
+      </c>
+      <c r="U58" s="2">
+        <v>268.05600053611158</v>
+      </c>
+      <c r="V58" s="2">
+        <v>256.88700051377413</v>
+      </c>
+      <c r="W58" s="2">
+        <v>253.16400050632839</v>
+      </c>
+      <c r="X58" s="2">
+        <v>250.55790050111571</v>
+      </c>
+      <c r="Y58" s="2">
+        <v>250.55790050111571</v>
+      </c>
+      <c r="Z58" s="2">
+        <v>250.55790050111571</v>
+      </c>
+      <c r="AA58" s="2">
+        <v>243.1119004862241</v>
+      </c>
+      <c r="AB58" s="2">
+        <v>235.6659004713317</v>
+      </c>
+      <c r="AC58" s="2">
+        <v>228.2199004564398</v>
+      </c>
+      <c r="AD58" s="2">
+        <v>220.77390044154791</v>
+      </c>
+      <c r="AE58" s="2">
+        <v>212.93323016122349</v>
+      </c>
+      <c r="AF58" s="2">
+        <v>199.2775173589944</v>
+      </c>
+      <c r="AG58" s="2">
+        <v>184.61766598233831</v>
+      </c>
+      <c r="AH58" s="2">
+        <v>165.29739268543949</v>
+      </c>
+      <c r="AI58" s="2"/>
+      <c r="AJ58" s="2"/>
+    </row>
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>43</v>
+      </c>
+      <c r="B59" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="2">
+        <v>8.6539999999999981</v>
+      </c>
+      <c r="E59" s="2">
+        <v>12.385909583783929</v>
+      </c>
+      <c r="F59" s="2">
+        <v>14.45495819811069</v>
+      </c>
+      <c r="G59" s="2">
+        <v>18.59305542676422</v>
+      </c>
+      <c r="H59" s="2">
+        <v>30.776605962875099</v>
+      </c>
+      <c r="I59" s="2">
+        <v>34.914703191528609</v>
+      </c>
+      <c r="J59" s="2">
+        <v>39.6896436899017</v>
+      </c>
+      <c r="K59" s="2">
+        <v>44.676865278181317</v>
+      </c>
+      <c r="L59" s="2">
+        <v>54.014465185020981</v>
+      </c>
+      <c r="M59" s="2">
+        <v>63.139784001954183</v>
+      </c>
+      <c r="N59" s="2">
+        <v>76.403200047540835</v>
+      </c>
+      <c r="O59" s="2">
+        <v>80.541297276194385</v>
+      </c>
+      <c r="P59" s="2">
+        <v>88.817491733501427</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>97.093686190808427</v>
+      </c>
+      <c r="R59" s="2">
+        <v>105.3698806481155</v>
+      </c>
+      <c r="S59" s="2">
+        <v>113.6460751054226</v>
+      </c>
+      <c r="T59" s="2">
+        <v>121.9222695627296</v>
+      </c>
+      <c r="U59" s="2">
+        <v>138.47465847734361</v>
+      </c>
+      <c r="V59" s="2">
+        <v>155.02704739195781</v>
+      </c>
+      <c r="W59" s="2">
+        <v>171.57943630657181</v>
+      </c>
+      <c r="X59" s="2">
+        <v>208.82231136445341</v>
+      </c>
+      <c r="Y59" s="2">
+        <v>212.96040859310691</v>
+      </c>
+      <c r="Z59" s="2">
+        <v>217.09850582176051</v>
+      </c>
+      <c r="AA59" s="2">
+        <v>221.23660305041409</v>
+      </c>
+      <c r="AB59" s="2">
+        <v>225.3747002790677</v>
+      </c>
+      <c r="AC59" s="2">
+        <v>229.51279750772099</v>
+      </c>
+      <c r="AD59" s="2">
+        <v>233.6508947363746</v>
+      </c>
+      <c r="AE59" s="2">
+        <v>241.9270891936817</v>
+      </c>
+      <c r="AF59" s="2">
+        <v>250.2032836509886</v>
+      </c>
+      <c r="AG59" s="2">
+        <v>258.47947810829578</v>
+      </c>
+      <c r="AH59" s="2">
+        <v>270.89376979425617</v>
+      </c>
+      <c r="AI59" s="2"/>
+      <c r="AJ59" s="2"/>
+    </row>
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>43</v>
+      </c>
+      <c r="B60" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="2">
+        <v>78.643999999999963</v>
+      </c>
+      <c r="E60" s="2">
+        <v>88.216497544959822</v>
+      </c>
+      <c r="F60" s="2">
+        <v>88.248073420435688</v>
+      </c>
+      <c r="G60" s="2">
+        <v>95.998567005321817</v>
+      </c>
+      <c r="H60" s="2">
+        <v>104.40677445493399</v>
+      </c>
+      <c r="I60" s="2">
+        <v>112.4207646062457</v>
+      </c>
+      <c r="J60" s="2">
+        <v>121.19608382193179</v>
+      </c>
+      <c r="K60" s="2">
+        <v>130.80505836310829</v>
+      </c>
+      <c r="L60" s="2">
+        <v>141.32688548569641</v>
+      </c>
+      <c r="M60" s="2">
+        <v>152.8482861849306</v>
+      </c>
+      <c r="N60" s="2">
+        <v>154.17627921289471</v>
+      </c>
+      <c r="O60" s="2">
+        <v>154.84691569201709</v>
+      </c>
+      <c r="P60" s="2">
+        <v>155.52090535353429</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>156.19826496335949</v>
+      </c>
+      <c r="R60" s="2">
+        <v>156.8790113712339</v>
+      </c>
+      <c r="S60" s="2">
+        <v>157.56316151114771</v>
+      </c>
+      <c r="T60" s="2">
+        <v>158.25073240176101</v>
+      </c>
+      <c r="U60" s="2">
+        <v>158.94174114682721</v>
+      </c>
+      <c r="V60" s="2">
+        <v>159.63620493561879</v>
+      </c>
+      <c r="W60" s="2">
+        <v>160.33414104335461</v>
+      </c>
+      <c r="X60" s="2">
+        <v>161.03556683162861</v>
+      </c>
+      <c r="Y60" s="2">
+        <v>161.7404997488444</v>
+      </c>
+      <c r="Z60" s="2">
+        <v>162.4489573306461</v>
+      </c>
+      <c r="AA60" s="2">
+        <v>163.16095720035699</v>
+      </c>
+      <c r="AB60" s="2">
+        <v>163.8765170694162</v>
+      </c>
+      <c r="AC60" s="2">
+        <v>164.59565473782081</v>
+      </c>
+      <c r="AD60" s="2">
+        <v>165.31838809456741</v>
+      </c>
+      <c r="AE60" s="2">
+        <v>166.04473511809769</v>
+      </c>
+      <c r="AF60" s="2">
+        <v>166.77471387674541</v>
+      </c>
+      <c r="AG60" s="2">
+        <v>167.50834252918679</v>
+      </c>
+      <c r="AH60" s="2">
+        <v>168.24563932489019</v>
+      </c>
+      <c r="AI60" s="2"/>
+      <c r="AJ60" s="2"/>
+    </row>
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61" t="s">
+        <v>50</v>
+      </c>
+      <c r="D61" s="2">
+        <v>21.184413042368821</v>
+      </c>
+      <c r="E61" s="2">
+        <v>21.184412999999989</v>
+      </c>
+      <c r="F61" s="2">
+        <v>30.405590975341092</v>
+      </c>
+      <c r="G61" s="2">
+        <v>28.67234265458298</v>
+      </c>
+      <c r="H61" s="2">
+        <v>21.184413000000021</v>
+      </c>
+      <c r="I61" s="2">
+        <v>21.184412999999999</v>
+      </c>
+      <c r="J61" s="2">
+        <v>21.184413000000021</v>
+      </c>
+      <c r="K61" s="2">
+        <v>21.184413000000021</v>
+      </c>
+      <c r="L61" s="2">
+        <v>21.184413000000021</v>
+      </c>
+      <c r="M61" s="2">
+        <v>21.184413000000021</v>
+      </c>
+      <c r="N61" s="2">
+        <v>21.184413000000021</v>
+      </c>
+      <c r="O61" s="2">
+        <v>21.184412999999999</v>
+      </c>
+      <c r="P61" s="2">
+        <v>21.184412999999999</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>21.184412999999999</v>
+      </c>
+      <c r="R61" s="2">
+        <v>21.184412999999999</v>
+      </c>
+      <c r="S61" s="2">
+        <v>21.184412999999999</v>
+      </c>
+      <c r="T61" s="2">
+        <v>21.184412999999999</v>
+      </c>
+      <c r="U61" s="2">
+        <v>21.184412999999999</v>
+      </c>
+      <c r="V61" s="2">
+        <v>21.184412999999999</v>
+      </c>
+      <c r="W61" s="2">
+        <v>21.184412999999999</v>
+      </c>
+      <c r="X61" s="2">
+        <v>21.184412999999999</v>
+      </c>
+      <c r="Y61" s="2">
+        <v>21.184412999999999</v>
+      </c>
+      <c r="Z61" s="2">
+        <v>21.184412999999999</v>
+      </c>
+      <c r="AA61" s="2">
+        <v>21.184412999999999</v>
+      </c>
+      <c r="AB61" s="2">
+        <v>21.184412999999999</v>
+      </c>
+      <c r="AC61" s="2">
+        <v>21.184412999999999</v>
+      </c>
+      <c r="AD61" s="2">
+        <v>21.184412999999999</v>
+      </c>
+      <c r="AE61" s="2">
+        <v>21.184412999999999</v>
+      </c>
+      <c r="AF61" s="2">
+        <v>21.184412999999999</v>
+      </c>
+      <c r="AG61" s="2">
+        <v>21.184412999999999</v>
+      </c>
+      <c r="AH61" s="2">
+        <v>21.184412999999999</v>
+      </c>
+      <c r="AI61" s="2"/>
+      <c r="AJ61" s="2"/>
+    </row>
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62" t="s">
+        <v>49</v>
+      </c>
+      <c r="C62" t="s">
+        <v>51</v>
+      </c>
+      <c r="D62" s="2">
+        <v>2.6000000052000001</v>
+      </c>
+      <c r="E62" s="2">
+        <v>2.8691320812099641</v>
+      </c>
+      <c r="F62" s="2">
+        <v>2.8691320812099641</v>
+      </c>
+      <c r="G62" s="2">
+        <v>2.8691320812099641</v>
+      </c>
+      <c r="H62" s="2">
+        <v>2.816000005632</v>
+      </c>
+      <c r="I62" s="2">
+        <v>2.816000005632</v>
+      </c>
+      <c r="J62" s="2">
+        <v>2.816000005632</v>
+      </c>
+      <c r="K62" s="2">
+        <v>2.816000005632</v>
+      </c>
+      <c r="L62" s="2">
+        <v>2.816000005632</v>
+      </c>
+      <c r="M62" s="2">
+        <v>2.816000005632</v>
+      </c>
+      <c r="N62" s="2">
+        <v>2.816000005632</v>
+      </c>
+      <c r="O62" s="2">
+        <v>2.816000005632</v>
+      </c>
+      <c r="P62" s="2">
+        <v>2.816000005632</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>2.816000005632</v>
+      </c>
+      <c r="R62" s="2">
+        <v>2.816000005632</v>
+      </c>
+      <c r="S62" s="2">
+        <v>2.816000005632</v>
+      </c>
+      <c r="T62" s="2">
+        <v>2.816000005632</v>
+      </c>
+      <c r="U62" s="2">
+        <v>2.816000005632</v>
+      </c>
+      <c r="V62" s="2">
+        <v>2.816000005632</v>
+      </c>
+      <c r="W62" s="2">
+        <v>2.816000005632</v>
+      </c>
+      <c r="X62" s="2">
+        <v>2.816000005632</v>
+      </c>
+      <c r="Y62" s="2">
+        <v>2.816000005632</v>
+      </c>
+      <c r="Z62" s="2">
+        <v>2.816000005632</v>
+      </c>
+      <c r="AA62" s="2">
+        <v>2.816000005632</v>
+      </c>
+      <c r="AB62" s="2">
+        <v>2.816000005632</v>
+      </c>
+      <c r="AC62" s="2">
+        <v>2.816000005632</v>
+      </c>
+      <c r="AD62" s="2">
+        <v>2.816000005632</v>
+      </c>
+      <c r="AE62" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="AF62" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="AG62" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="AH62" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="AI62" s="2"/>
+      <c r="AJ62" s="2"/>
+    </row>
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63" t="s">
+        <v>49</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="2">
+        <v>15.98748299999999</v>
+      </c>
+      <c r="E63" s="2">
+        <v>15.987482999999999</v>
+      </c>
+      <c r="F63" s="2">
+        <v>15.98748300000001</v>
+      </c>
+      <c r="G63" s="2">
+        <v>15.987482999999999</v>
+      </c>
+      <c r="H63" s="2">
+        <v>15.987482999999999</v>
+      </c>
+      <c r="I63" s="2">
+        <v>15.987482999999999</v>
+      </c>
+      <c r="J63" s="2">
+        <v>15.987482999999999</v>
+      </c>
+      <c r="K63" s="2">
+        <v>15.987482999999999</v>
+      </c>
+      <c r="L63" s="2">
+        <v>15.987482999999999</v>
+      </c>
+      <c r="M63" s="2">
+        <v>15.987482999999999</v>
+      </c>
+      <c r="N63" s="2">
+        <v>15.987482999999999</v>
+      </c>
+      <c r="O63" s="2">
+        <v>15.987482999999999</v>
+      </c>
+      <c r="P63" s="2">
+        <v>15.987482999999999</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>15.98748299999999</v>
+      </c>
+      <c r="R63" s="2">
+        <v>15.98748299999999</v>
+      </c>
+      <c r="S63" s="2">
+        <v>15.987482999999999</v>
+      </c>
+      <c r="T63" s="2">
+        <v>15.987482999999999</v>
+      </c>
+      <c r="U63" s="2">
+        <v>15.98748299999999</v>
+      </c>
+      <c r="V63" s="2">
+        <v>15.98748299999999</v>
+      </c>
+      <c r="W63" s="2">
+        <v>15.98748299999999</v>
+      </c>
+      <c r="X63" s="2">
+        <v>15.98748299999999</v>
+      </c>
+      <c r="Y63" s="2">
+        <v>15.98748299999999</v>
+      </c>
+      <c r="Z63" s="2">
+        <v>15.98748299999999</v>
+      </c>
+      <c r="AA63" s="2">
+        <v>15.98748299999999</v>
+      </c>
+      <c r="AB63" s="2">
+        <v>15.98748299999999</v>
+      </c>
+      <c r="AC63" s="2">
+        <v>15.98748299999999</v>
+      </c>
+      <c r="AD63" s="2">
+        <v>15.98748299999999</v>
+      </c>
+      <c r="AE63" s="2">
+        <v>15.98748299999999</v>
+      </c>
+      <c r="AF63" s="2">
+        <v>15.98748299999999</v>
+      </c>
+      <c r="AG63" s="2">
+        <v>15.98748299999999</v>
+      </c>
+      <c r="AH63" s="2">
+        <v>15.98748299999999</v>
+      </c>
+      <c r="AI63" s="2"/>
+      <c r="AJ63" s="2"/>
+    </row>
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>43</v>
+      </c>
+      <c r="B64" t="s">
+        <v>49</v>
+      </c>
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="2">
+        <v>1000.244136148158</v>
+      </c>
+      <c r="E64" s="2">
+        <v>1004.88591853668</v>
+      </c>
+      <c r="F64" s="2">
+        <v>996.47334978003562</v>
+      </c>
+      <c r="G64" s="2">
+        <v>990.77035330761953</v>
+      </c>
+      <c r="H64" s="2">
+        <v>985.61601372491657</v>
+      </c>
+      <c r="I64" s="2">
+        <v>983.23147695237208</v>
+      </c>
+      <c r="J64" s="2">
+        <v>981.54894287981119</v>
+      </c>
+      <c r="K64" s="2">
+        <v>981.03879250793625</v>
+      </c>
+      <c r="L64" s="2">
+        <v>977.7405799161138</v>
+      </c>
+      <c r="M64" s="2">
+        <v>975.07984668836752</v>
+      </c>
+      <c r="N64" s="2">
+        <v>972.60183260852216</v>
+      </c>
+      <c r="O64" s="2">
+        <v>969.09428029915284</v>
+      </c>
+      <c r="P64" s="2">
+        <v>964.45800595094079</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>960.00903940232183</v>
+      </c>
+      <c r="R64" s="2">
+        <v>954.55164996826647</v>
+      </c>
+      <c r="S64" s="2">
+        <v>949.35841488451706</v>
+      </c>
+      <c r="T64" s="2">
+        <v>943.55318663600065</v>
+      </c>
+      <c r="U64" s="2">
+        <v>937.42490123678829</v>
+      </c>
+      <c r="V64" s="2">
+        <v>931.01375126095877</v>
+      </c>
+      <c r="W64" s="2">
+        <v>924.97831723932836</v>
+      </c>
+      <c r="X64" s="2">
+        <v>918.07750213108329</v>
+      </c>
+      <c r="Y64" s="2">
+        <v>912.14533627139724</v>
+      </c>
+      <c r="Z64" s="2">
+        <v>906.20982683560783</v>
+      </c>
+      <c r="AA64" s="2">
+        <v>900.32210927855044</v>
+      </c>
+      <c r="AB64" s="2">
+        <v>895.28099083820302</v>
+      </c>
+      <c r="AC64" s="2">
+        <v>889.76027569221947</v>
+      </c>
+      <c r="AD64" s="2">
+        <v>884.19263400244733</v>
+      </c>
+      <c r="AE64" s="2">
+        <v>878.99755167631702</v>
+      </c>
+      <c r="AF64" s="2">
+        <v>874.61091279898892</v>
+      </c>
+      <c r="AG64" s="2">
+        <v>869.43418603637531</v>
+      </c>
+      <c r="AH64" s="2">
+        <v>864.45345772301914</v>
+      </c>
+      <c r="AI64" s="2"/>
+      <c r="AJ64" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
